--- a/Program/出荷実績照会_本社.xlsx
+++ b/Program/出荷実績照会_本社.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="新潟運輸_曜日違い" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_曜日違い" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -63,89 +63,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>7</col>
@@ -156,17 +88,17 @@
     <ext cx="2400300" cy="595312"/>
     <pic>
       <nvPicPr>
-        <cNvPr descr="Picture" id="1" name="Image 1"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -458,7 +390,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
@@ -471,42 +403,42 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="1.87"/>
-    <col customWidth="1" max="2" min="2" width="8.800000000000001"/>
-    <col customWidth="1" max="3" min="3" width="16.83"/>
-    <col customWidth="1" max="4" min="4" width="30.14"/>
-    <col customWidth="1" max="5" min="5" width="9.9"/>
-    <col customWidth="1" max="6" min="6" width="7.48"/>
-    <col customWidth="1" max="7" min="7" width="3.74"/>
-    <col customWidth="1" max="8" min="8" width="7.700000000000001"/>
-    <col customWidth="1" max="9" min="9" width="3.74"/>
-    <col customWidth="1" max="10" min="10" width="18.59"/>
-    <col customWidth="1" max="11" min="11" width="1.1"/>
-    <col customWidth="1" max="12" min="12" width="3.3"/>
+    <col width="1.87" customWidth="1" min="1" max="1"/>
+    <col width="8.800000000000001" customWidth="1" min="2" max="2"/>
+    <col width="16.83" customWidth="1" min="3" max="3"/>
+    <col width="30.14" customWidth="1" min="4" max="4"/>
+    <col width="9.9" customWidth="1" min="5" max="5"/>
+    <col width="7.48" customWidth="1" min="6" max="6"/>
+    <col width="3.74" customWidth="1" min="7" max="7"/>
+    <col width="7.700000000000001" customWidth="1" min="8" max="8"/>
+    <col width="3.74" customWidth="1" min="9" max="9"/>
+    <col width="18.59" customWidth="1" min="10" max="10"/>
+    <col width="1.1" customWidth="1" min="11" max="11"/>
+    <col width="3.3" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="23" r="1">
+    <row r="1" ht="23" customHeight="1">
       <c r="E1" t="inlineStr">
         <is>
           <t>出荷実績照会</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="2">
+    <row r="2" ht="18" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
           <t>出荷工場：@0001 本社工場</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="3">
+    <row r="3" ht="18" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
           <t>運送業者：U0009 新潟運輸     配送区分：4 曜日違い</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="4">
+    <row r="4" ht="18" customHeight="1">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>行</t>
@@ -568,7 +500,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="5">
+    <row r="5" ht="18" customHeight="1">
       <c r="A5" s="1" t="n">
         <v>1</v>
       </c>
@@ -622,7 +554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="6">
+    <row r="6" ht="18" customHeight="1">
       <c r="A6" s="1" t="n">
         <v>2</v>
       </c>
@@ -668,7 +600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="7">
+    <row r="7" ht="18" customHeight="1">
       <c r="A7" s="1" t="n">
         <v>3</v>
       </c>
@@ -714,7 +646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="8">
+    <row r="8" ht="18" customHeight="1">
       <c r="A8" s="1" t="n">
         <v>4</v>
       </c>
@@ -761,9 +693,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.8" footer="0.5" header="0.5" left="0.2" right="0.2" top="0.8"/>
-  <pageSetup fitToHeight="0" fitToWidth="1" orientation="landscape" paperSize="9"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -781,6 +713,6 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Program/出荷実績照会_本社.xlsx
+++ b/Program/出荷実績照会_本社.xlsx
@@ -7,8 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_曜日違い" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="配達_通常" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_曜日違い" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -77,6 +78,36 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2400300" cy="595312"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
@@ -395,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -405,14 +436,14 @@
   <cols>
     <col width="1.87" customWidth="1" min="1" max="1"/>
     <col width="8.800000000000001" customWidth="1" min="2" max="2"/>
-    <col width="16.83" customWidth="1" min="3" max="3"/>
-    <col width="30.14" customWidth="1" min="4" max="4"/>
-    <col width="9.9" customWidth="1" min="5" max="5"/>
+    <col width="7.48" customWidth="1" min="3" max="3"/>
+    <col width="18.92" customWidth="1" min="4" max="4"/>
+    <col width="6.600000000000001" customWidth="1" min="5" max="5"/>
     <col width="7.48" customWidth="1" min="6" max="6"/>
     <col width="3.74" customWidth="1" min="7" max="7"/>
-    <col width="7.700000000000001" customWidth="1" min="8" max="8"/>
+    <col width="7.040000000000001" customWidth="1" min="8" max="8"/>
     <col width="3.74" customWidth="1" min="9" max="9"/>
-    <col width="18.59" customWidth="1" min="10" max="10"/>
+    <col width="18.26" customWidth="1" min="10" max="10"/>
     <col width="1.1" customWidth="1" min="11" max="11"/>
     <col width="3.3" customWidth="1" min="12" max="12"/>
   </cols>
@@ -434,7 +465,7 @@
     <row r="3" ht="18" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>運送業者：U0009 新潟運輸     配送区分：4 曜日違い</t>
+          <t>運送業者：U0008 配達     配送区分：1 通常</t>
         </is>
       </c>
     </row>
@@ -506,50 +537,38 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20201222</t>
+          <t>20210106</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>日本通運㈱中部空港</t>
+          <t>柏真空</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>ＰＲ－Ａ（ＫＡI） (UN/15KG)</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>20121506H</t>
-        </is>
-      </c>
+          <t>P-5プライマー（1KG)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr"/>
       <c r="F5" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
           <t>CN</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>IID8570</t>
-        </is>
-      </c>
+      <c r="H5" s="1" t="inlineStr"/>
       <c r="I5" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>12/24納期　本社出荷</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
+          <t>1/6納期　田中手持ち</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr"/>
       <c r="L5" s="1" t="n">
         <v>1</v>
       </c>
@@ -560,24 +579,20 @@
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>20201222</t>
+          <t>20210106</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>トータス技実</t>
+          <t>柏真空</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>ＳＴＨ－３５０Ｍアンダー (15KG)</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>20100901H</t>
-        </is>
-      </c>
+          <t>P-3プライマー（1KG)</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr"/>
       <c r="F6" s="1" t="n">
         <v>1</v>
       </c>
@@ -592,12 +607,12 @@
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>12/24納期　本社出荷</t>
+          <t>1/6納期　田中手持ち</t>
         </is>
       </c>
       <c r="K6" s="1" t="inlineStr"/>
       <c r="L6" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1">
@@ -606,24 +621,20 @@
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>20201222</t>
+          <t>20210106</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>トータス技実</t>
+          <t>柏真空</t>
         </is>
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>ＳＴＨ－３５０Ｍアンダー (15KG)</t>
-        </is>
-      </c>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
-          <t>20112703H</t>
-        </is>
-      </c>
+          <t>APJ-8830（4KG)</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr"/>
       <c r="F7" s="1" t="n">
         <v>1</v>
       </c>
@@ -638,12 +649,12 @@
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
-          <t>12/24納期　本社出荷</t>
+          <t>1/6納期　田中手持ち</t>
         </is>
       </c>
       <c r="K7" s="1" t="inlineStr"/>
       <c r="L7" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" ht="18" customHeight="1">
@@ -652,24 +663,20 @@
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>20201222</t>
+          <t>20210106</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>トータス技実</t>
+          <t>柏真空</t>
         </is>
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>ＲＴ－３５Ｍ トップ (16KG)</t>
-        </is>
-      </c>
-      <c r="E8" s="1" t="inlineStr">
-        <is>
-          <t>20102303H</t>
-        </is>
-      </c>
+          <t>APJ-8935（4KG)</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr"/>
       <c r="F8" s="1" t="n">
         <v>1</v>
       </c>
@@ -684,12 +691,54 @@
       </c>
       <c r="J8" s="1" t="inlineStr">
         <is>
-          <t>12/24納期　本社出荷</t>
+          <t>1/6納期　田中手持ち</t>
         </is>
       </c>
       <c r="K8" s="1" t="inlineStr"/>
       <c r="L8" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="18" customHeight="1">
+      <c r="A9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>20210106</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>柏真空</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>JVS-003（4KG)</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="inlineStr"/>
+      <c r="F9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H9" s="1" t="inlineStr"/>
+      <c r="I9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1" t="inlineStr">
+        <is>
+          <t>1/6納期　田中手持ち</t>
+        </is>
+      </c>
+      <c r="K9" s="1" t="inlineStr"/>
+      <c r="L9" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -700,6 +749,216 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L6"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="1.87" customWidth="1" min="1" max="1"/>
+    <col width="8.800000000000001" customWidth="1" min="2" max="2"/>
+    <col width="7.48" customWidth="1" min="3" max="3"/>
+    <col width="30.14" customWidth="1" min="4" max="4"/>
+    <col width="9.9" customWidth="1" min="5" max="5"/>
+    <col width="7.48" customWidth="1" min="6" max="6"/>
+    <col width="3.74" customWidth="1" min="7" max="7"/>
+    <col width="7.040000000000001" customWidth="1" min="8" max="8"/>
+    <col width="3.74" customWidth="1" min="9" max="9"/>
+    <col width="15.62" customWidth="1" min="10" max="10"/>
+    <col width="1.1" customWidth="1" min="11" max="11"/>
+    <col width="3.3" customWidth="1" min="12" max="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="23" customHeight="1">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>出荷実績照会</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>出荷工場：@0001 本社工場</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>運送業者：U0009 新潟運輸     配送区分：4 曜日違い</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>行</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>売上日</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>納入先名</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>品名</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>ﾛｯﾄNo.</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>売上数量</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>単位</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>注文No.</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>缶数</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="18" customHeight="1">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>20210106</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>三栄産業</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>ＡＳ－５ＮＰ艶消アンダー (15KG)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>20110306H</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr"/>
+      <c r="I5" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>1/8納期 本社出荷</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr"/>
+      <c r="L5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>20210106</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>サナック</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>ＩＫ－５０（15KG）</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>20102101H</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr"/>
+      <c r="I6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>1/8納期 本社出荷</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr"/>
+      <c r="L6" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/Program/出荷実績照会_本社.xlsx
+++ b/Program/出荷実績照会_本社.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="配達_通常" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_曜日違い" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="NoData_通常" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="新潟運輸_曜日違い" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="新潟運輸_通常" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -64,21 +65,89 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>7</col>
@@ -89,17 +158,17 @@
     <ext cx="2400300" cy="595312"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPr descr="Picture" id="1" name="Image 1"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -108,7 +177,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>7</col>
@@ -119,17 +188,47 @@
     <ext cx="2400300" cy="595312"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPr descr="Picture" id="1" name="Image 1"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2400300" cy="595312"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="1" name="Image 1"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -421,12 +520,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,42 +533,42 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="1.87" customWidth="1" min="1" max="1"/>
-    <col width="8.800000000000001" customWidth="1" min="2" max="2"/>
-    <col width="7.48" customWidth="1" min="3" max="3"/>
-    <col width="18.92" customWidth="1" min="4" max="4"/>
-    <col width="6.600000000000001" customWidth="1" min="5" max="5"/>
-    <col width="7.48" customWidth="1" min="6" max="6"/>
-    <col width="3.74" customWidth="1" min="7" max="7"/>
-    <col width="7.040000000000001" customWidth="1" min="8" max="8"/>
-    <col width="3.74" customWidth="1" min="9" max="9"/>
-    <col width="18.26" customWidth="1" min="10" max="10"/>
-    <col width="1.1" customWidth="1" min="11" max="11"/>
-    <col width="3.3" customWidth="1" min="12" max="12"/>
+    <col customWidth="1" max="1" min="1" width="1.87"/>
+    <col customWidth="1" max="2" min="2" width="8.800000000000001"/>
+    <col customWidth="1" max="3" min="3" width="7.48"/>
+    <col customWidth="1" max="4" min="4" width="22.66"/>
+    <col customWidth="1" max="5" min="5" width="9.9"/>
+    <col customWidth="1" max="6" min="6" width="7.48"/>
+    <col customWidth="1" max="7" min="7" width="3.74"/>
+    <col customWidth="1" max="8" min="8" width="7.040000000000001"/>
+    <col customWidth="1" max="9" min="9" width="3.74"/>
+    <col customWidth="1" max="10" min="10" width="20.13"/>
+    <col customWidth="1" max="11" min="11" width="1.1"/>
+    <col customWidth="1" max="12" min="12" width="3.3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23" customHeight="1">
+    <row customHeight="1" ht="23" r="1">
       <c r="E1" t="inlineStr">
         <is>
           <t>出荷実績照会</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="2">
       <c r="A2" t="inlineStr">
         <is>
           <t>出荷工場：@0001 本社工場</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>運送業者：U0008 配達     配送区分：1 通常</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="18" customHeight="1">
+          <t>運送業者：NoData NoData     配送区分：1 通常</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>行</t>
@@ -531,13 +630,13 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="5">
       <c r="A5" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210106</t>
+          <t>20210105</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
@@ -547,10 +646,14 @@
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>P-5プライマー（1KG)</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr"/>
+          <t>Ｐ－３プライマー (15KG)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>20071331H</t>
+        </is>
+      </c>
       <c r="F5" s="1" t="n">
         <v>1</v>
       </c>
@@ -565,7 +668,7 @@
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>1/6納期　田中手持ち</t>
+          <t>1/7納期　大阪より直送</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr"/>
@@ -573,183 +676,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>20210106</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>柏真空</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>P-3プライマー（1KG)</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr"/>
-      <c r="F6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="inlineStr"/>
-      <c r="I6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t>1/6納期　田中手持ち</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr"/>
-      <c r="L6" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>20210106</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>柏真空</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t>APJ-8830（4KG)</t>
-        </is>
-      </c>
-      <c r="E7" s="1" t="inlineStr"/>
-      <c r="F7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H7" s="1" t="inlineStr"/>
-      <c r="I7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1" t="inlineStr">
-        <is>
-          <t>1/6納期　田中手持ち</t>
-        </is>
-      </c>
-      <c r="K7" s="1" t="inlineStr"/>
-      <c r="L7" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>20210106</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>柏真空</t>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
-        <is>
-          <t>APJ-8935（4KG)</t>
-        </is>
-      </c>
-      <c r="E8" s="1" t="inlineStr"/>
-      <c r="F8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H8" s="1" t="inlineStr"/>
-      <c r="I8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1" t="inlineStr">
-        <is>
-          <t>1/6納期　田中手持ち</t>
-        </is>
-      </c>
-      <c r="K8" s="1" t="inlineStr"/>
-      <c r="L8" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" ht="18" customHeight="1">
-      <c r="A9" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>20210106</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>柏真空</t>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
-        <is>
-          <t>JVS-003（4KG)</t>
-        </is>
-      </c>
-      <c r="E9" s="1" t="inlineStr"/>
-      <c r="F9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H9" s="1" t="inlineStr"/>
-      <c r="I9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" s="1" t="inlineStr">
-        <is>
-          <t>1/6納期　田中手持ち</t>
-        </is>
-      </c>
-      <c r="K9" s="1" t="inlineStr"/>
-      <c r="L9" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <pageMargins bottom="0.8" footer="0.5" header="0.5" left="0.2" right="0.2" top="0.8"/>
+  <pageSetup fitToHeight="0" fitToWidth="1" orientation="landscape" paperSize="9"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
@@ -762,42 +697,42 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="1.87" customWidth="1" min="1" max="1"/>
-    <col width="8.800000000000001" customWidth="1" min="2" max="2"/>
-    <col width="7.48" customWidth="1" min="3" max="3"/>
-    <col width="30.14" customWidth="1" min="4" max="4"/>
-    <col width="9.9" customWidth="1" min="5" max="5"/>
-    <col width="7.48" customWidth="1" min="6" max="6"/>
-    <col width="3.74" customWidth="1" min="7" max="7"/>
-    <col width="7.040000000000001" customWidth="1" min="8" max="8"/>
-    <col width="3.74" customWidth="1" min="9" max="9"/>
-    <col width="15.62" customWidth="1" min="10" max="10"/>
-    <col width="1.1" customWidth="1" min="11" max="11"/>
-    <col width="3.3" customWidth="1" min="12" max="12"/>
+    <col customWidth="1" max="1" min="1" width="1.87"/>
+    <col customWidth="1" max="2" min="2" width="8.800000000000001"/>
+    <col customWidth="1" max="3" min="3" width="13.09"/>
+    <col customWidth="1" max="4" min="4" width="15.07"/>
+    <col customWidth="1" max="5" min="5" width="6.600000000000001"/>
+    <col customWidth="1" max="6" min="6" width="7.48"/>
+    <col customWidth="1" max="7" min="7" width="3.74"/>
+    <col customWidth="1" max="8" min="8" width="7.040000000000001"/>
+    <col customWidth="1" max="9" min="9" width="3.74"/>
+    <col customWidth="1" max="10" min="10" width="29.48"/>
+    <col customWidth="1" max="11" min="11" width="1.1"/>
+    <col customWidth="1" max="12" min="12" width="3.3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23" customHeight="1">
+    <row customHeight="1" ht="23" r="1">
       <c r="E1" t="inlineStr">
         <is>
           <t>出荷実績照会</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="2">
       <c r="A2" t="inlineStr">
         <is>
           <t>出荷工場：@0001 本社工場</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="3">
       <c r="A3" t="inlineStr">
         <is>
           <t>運送業者：U0009 新潟運輸     配送区分：4 曜日違い</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>行</t>
@@ -859,32 +794,28 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="5">
       <c r="A5" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210106</t>
+          <t>20210105</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>三栄産業</t>
+          <t>スリードリーム</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>ＡＳ－５ＮＰ艶消アンダー (15KG)</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>20110306H</t>
-        </is>
-      </c>
+          <t>JVS-003（4KG)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr"/>
       <c r="F5" s="1" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
@@ -893,11 +824,11 @@
       </c>
       <c r="H5" s="1" t="inlineStr"/>
       <c r="I5" s="1" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>1/8納期 本社出荷</t>
+          <t>1/7納期　本社出荷　池ノ谷社長宛</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr"/>
@@ -905,30 +836,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="6">
       <c r="A6" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>20210106</t>
+          <t>20210105</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>サナック</t>
+          <t>スリードリーム</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>ＩＫ－５０（15KG）</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>20102101H</t>
-        </is>
-      </c>
+          <t>UVP-0274（4KG)</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr"/>
       <c r="F6" s="1" t="n">
         <v>2</v>
       </c>
@@ -943,22 +870,228 @@
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>1/8納期 本社出荷</t>
+          <t>1/7納期　本社出荷　池ノ谷社長宛</t>
         </is>
       </c>
       <c r="K6" s="1" t="inlineStr"/>
       <c r="L6" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <pageMargins bottom="0.8" footer="0.5" header="0.5" left="0.2" right="0.2" top="0.8"/>
+  <pageSetup fitToHeight="0" fitToWidth="1" orientation="landscape" paperSize="9"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L6"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="1.87"/>
+    <col customWidth="1" max="2" min="2" width="8.800000000000001"/>
+    <col customWidth="1" max="3" min="3" width="13.09"/>
+    <col customWidth="1" max="4" min="4" width="28.6"/>
+    <col customWidth="1" max="5" min="5" width="9.9"/>
+    <col customWidth="1" max="6" min="6" width="7.48"/>
+    <col customWidth="1" max="7" min="7" width="3.74"/>
+    <col customWidth="1" max="8" min="8" width="7.040000000000001"/>
+    <col customWidth="1" max="9" min="9" width="3.74"/>
+    <col customWidth="1" max="10" min="10" width="25.63"/>
+    <col customWidth="1" max="11" min="11" width="1.1"/>
+    <col customWidth="1" max="12" min="12" width="3.3"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="23" r="1">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>出荷実績照会</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>出荷工場：@0001 本社工場</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>運送業者：U0009 新潟運輸     配送区分：1 通常</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>行</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>売上日</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>納入先名</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>品名</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>ﾛｯﾄNo.</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>売上数量</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>単位</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>注文No.</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>缶数</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="5">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>20210105</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>伊坂藤枝</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>BS-421 B (4KG)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr"/>
+      <c r="F5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr"/>
+      <c r="I5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>1/6納期　本社出荷</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr"/>
+      <c r="L5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="6">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>20210105</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>スタンレー秦野</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>ＳＴＭ-３０-Ｔ２Ｌ塗料 (15KG)</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>20100203H</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr"/>
+      <c r="I6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>1/6納期本社出荷一号館NO.80</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr"/>
+      <c r="L6" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.8" footer="0.5" header="0.5" left="0.2" right="0.2" top="0.8"/>
+  <pageSetup fitToHeight="0" fitToWidth="1" orientation="landscape" paperSize="9"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -972,6 +1105,6 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Program/出荷実績照会_本社.xlsx
+++ b/Program/出荷実績照会_本社.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="NoData_通常" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="新潟運輸_曜日違い" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="新潟運輸_通常" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Sheet" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_曜日違い" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NoData_通常" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -65,89 +65,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>7</col>
@@ -158,17 +90,17 @@
     <ext cx="2400300" cy="595312"/>
     <pic>
       <nvPicPr>
-        <cNvPr descr="Picture" id="1" name="Image 1"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -177,7 +109,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>7</col>
@@ -188,17 +120,17 @@
     <ext cx="2400300" cy="595312"/>
     <pic>
       <nvPicPr>
-        <cNvPr descr="Picture" id="1" name="Image 1"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -207,7 +139,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>7</col>
@@ -218,17 +150,17 @@
     <ext cx="2400300" cy="595312"/>
     <pic>
       <nvPicPr>
-        <cNvPr descr="Picture" id="1" name="Image 1"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -520,7 +452,209 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L6"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="1.87" customWidth="1" min="1" max="1"/>
+    <col width="8.800000000000001" customWidth="1" min="2" max="2"/>
+    <col width="13.09" customWidth="1" min="3" max="3"/>
+    <col width="15.07" customWidth="1" min="4" max="4"/>
+    <col width="6.600000000000001" customWidth="1" min="5" max="5"/>
+    <col width="7.48" customWidth="1" min="6" max="6"/>
+    <col width="3.74" customWidth="1" min="7" max="7"/>
+    <col width="7.040000000000001" customWidth="1" min="8" max="8"/>
+    <col width="3.74" customWidth="1" min="9" max="9"/>
+    <col width="29.48" customWidth="1" min="10" max="10"/>
+    <col width="1.1" customWidth="1" min="11" max="11"/>
+    <col width="3.3" customWidth="1" min="12" max="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="23" customHeight="1">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>出荷実績照会</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>出荷工場：@0001 本社工場</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>運送業者：U0009 新潟運輸     配送区分：4 曜日違い</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>行</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>売上日</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>納入先名</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>品名</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>ﾛｯﾄNo.</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>売上数量</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>単位</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>注文No.</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>缶数</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="18" customHeight="1">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>20210105</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>スリードリーム</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>JVS-003（4KG)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr"/>
+      <c r="F5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr"/>
+      <c r="I5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>1/7納期　本社出荷　池ノ谷社長宛</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr"/>
+      <c r="L5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>20210105</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>スリードリーム</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>UVP-0274（4KG)</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr"/>
+      <c r="F6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr"/>
+      <c r="I6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>1/7納期　本社出荷　池ノ谷社長宛</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr"/>
+      <c r="L6" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
@@ -533,42 +667,42 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="1.87"/>
-    <col customWidth="1" max="2" min="2" width="8.800000000000001"/>
-    <col customWidth="1" max="3" min="3" width="7.48"/>
-    <col customWidth="1" max="4" min="4" width="22.66"/>
-    <col customWidth="1" max="5" min="5" width="9.9"/>
-    <col customWidth="1" max="6" min="6" width="7.48"/>
-    <col customWidth="1" max="7" min="7" width="3.74"/>
-    <col customWidth="1" max="8" min="8" width="7.040000000000001"/>
-    <col customWidth="1" max="9" min="9" width="3.74"/>
-    <col customWidth="1" max="10" min="10" width="20.13"/>
-    <col customWidth="1" max="11" min="11" width="1.1"/>
-    <col customWidth="1" max="12" min="12" width="3.3"/>
+    <col width="1.87" customWidth="1" min="1" max="1"/>
+    <col width="8.800000000000001" customWidth="1" min="2" max="2"/>
+    <col width="7.48" customWidth="1" min="3" max="3"/>
+    <col width="22.66" customWidth="1" min="4" max="4"/>
+    <col width="9.9" customWidth="1" min="5" max="5"/>
+    <col width="7.48" customWidth="1" min="6" max="6"/>
+    <col width="3.74" customWidth="1" min="7" max="7"/>
+    <col width="7.040000000000001" customWidth="1" min="8" max="8"/>
+    <col width="3.74" customWidth="1" min="9" max="9"/>
+    <col width="20.13" customWidth="1" min="10" max="10"/>
+    <col width="1.1" customWidth="1" min="11" max="11"/>
+    <col width="3.3" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="23" r="1">
+    <row r="1" ht="23" customHeight="1">
       <c r="E1" t="inlineStr">
         <is>
           <t>出荷実績照会</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="2">
+    <row r="2" ht="18" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
           <t>出荷工場：@0001 本社工場</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="3">
+    <row r="3" ht="18" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
           <t>運送業者：NoData NoData     配送区分：1 通常</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="4">
+    <row r="4" ht="18" customHeight="1">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>行</t>
@@ -630,7 +764,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="5">
+    <row r="5" ht="18" customHeight="1">
       <c r="A5" s="1" t="n">
         <v>1</v>
       </c>
@@ -677,14 +811,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.8" footer="0.5" header="0.5" left="0.2" right="0.2" top="0.8"/>
-  <pageSetup fitToHeight="0" fitToWidth="1" orientation="landscape" paperSize="9"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
@@ -697,42 +831,42 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="1.87"/>
-    <col customWidth="1" max="2" min="2" width="8.800000000000001"/>
-    <col customWidth="1" max="3" min="3" width="13.09"/>
-    <col customWidth="1" max="4" min="4" width="15.07"/>
-    <col customWidth="1" max="5" min="5" width="6.600000000000001"/>
-    <col customWidth="1" max="6" min="6" width="7.48"/>
-    <col customWidth="1" max="7" min="7" width="3.74"/>
-    <col customWidth="1" max="8" min="8" width="7.040000000000001"/>
-    <col customWidth="1" max="9" min="9" width="3.74"/>
-    <col customWidth="1" max="10" min="10" width="29.48"/>
-    <col customWidth="1" max="11" min="11" width="1.1"/>
-    <col customWidth="1" max="12" min="12" width="3.3"/>
+    <col width="1.87" customWidth="1" min="1" max="1"/>
+    <col width="8.800000000000001" customWidth="1" min="2" max="2"/>
+    <col width="13.09" customWidth="1" min="3" max="3"/>
+    <col width="28.6" customWidth="1" min="4" max="4"/>
+    <col width="9.9" customWidth="1" min="5" max="5"/>
+    <col width="7.48" customWidth="1" min="6" max="6"/>
+    <col width="3.74" customWidth="1" min="7" max="7"/>
+    <col width="7.040000000000001" customWidth="1" min="8" max="8"/>
+    <col width="3.74" customWidth="1" min="9" max="9"/>
+    <col width="25.63" customWidth="1" min="10" max="10"/>
+    <col width="1.1" customWidth="1" min="11" max="11"/>
+    <col width="3.3" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="23" r="1">
+    <row r="1" ht="23" customHeight="1">
       <c r="E1" t="inlineStr">
         <is>
           <t>出荷実績照会</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="2">
+    <row r="2" ht="18" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
           <t>出荷工場：@0001 本社工場</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="3">
+    <row r="3" ht="18" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>運送業者：U0009 新潟運輸     配送区分：4 曜日違い</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="4">
+          <t>運送業者：U0009 新潟運輸     配送区分：1 通常</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>行</t>
@@ -794,7 +928,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="5">
+    <row r="5" ht="18" customHeight="1">
       <c r="A5" s="1" t="n">
         <v>1</v>
       </c>
@@ -805,17 +939,17 @@
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>スリードリーム</t>
+          <t>伊坂藤枝</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>JVS-003（4KG)</t>
+          <t>BS-421 B (4KG)</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr"/>
       <c r="F5" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
@@ -824,11 +958,11 @@
       </c>
       <c r="H5" s="1" t="inlineStr"/>
       <c r="I5" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>1/7納期　本社出荷　池ノ谷社長宛</t>
+          <t>1/6納期　本社出荷</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr"/>
@@ -836,7 +970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="6">
+    <row r="6" ht="18" customHeight="1">
       <c r="A6" s="1" t="n">
         <v>2</v>
       </c>
@@ -847,17 +981,21 @@
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>スリードリーム</t>
+          <t>スタンレー秦野</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>UVP-0274（4KG)</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr"/>
+          <t>ＳＴＭ-３０-Ｔ２Ｌ塗料 (15KG)</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>20100203H</t>
+        </is>
+      </c>
       <c r="F6" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
@@ -866,11 +1004,11 @@
       </c>
       <c r="H6" s="1" t="inlineStr"/>
       <c r="I6" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>1/7納期　本社出荷　池ノ谷社長宛</t>
+          <t>1/6納期本社出荷一号館NO.80</t>
         </is>
       </c>
       <c r="K6" s="1" t="inlineStr"/>
@@ -879,215 +1017,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.8" footer="0.5" header="0.5" left="0.2" right="0.2" top="0.8"/>
-  <pageSetup fitToHeight="0" fitToWidth="1" orientation="landscape" paperSize="9"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:L6"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" width="1.87"/>
-    <col customWidth="1" max="2" min="2" width="8.800000000000001"/>
-    <col customWidth="1" max="3" min="3" width="13.09"/>
-    <col customWidth="1" max="4" min="4" width="28.6"/>
-    <col customWidth="1" max="5" min="5" width="9.9"/>
-    <col customWidth="1" max="6" min="6" width="7.48"/>
-    <col customWidth="1" max="7" min="7" width="3.74"/>
-    <col customWidth="1" max="8" min="8" width="7.040000000000001"/>
-    <col customWidth="1" max="9" min="9" width="3.74"/>
-    <col customWidth="1" max="10" min="10" width="25.63"/>
-    <col customWidth="1" max="11" min="11" width="1.1"/>
-    <col customWidth="1" max="12" min="12" width="3.3"/>
-  </cols>
-  <sheetData>
-    <row customHeight="1" ht="23" r="1">
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>出荷実績照会</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>出荷工場：@0001 本社工場</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>運送業者：U0009 新潟運輸     配送区分：1 通常</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>行</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>売上日</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>納入先名</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>品名</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>ﾛｯﾄNo.</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>売上数量</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>単位</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>注文No.</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t>缶数</t>
-        </is>
-      </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>備考</t>
-        </is>
-      </c>
-      <c r="K4" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L4" s="1" t="inlineStr">
-        <is>
-          <t>add</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="5">
-      <c r="A5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>20210105</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>伊坂藤枝</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>BS-421 B (4KG)</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr"/>
-      <c r="F5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr"/>
-      <c r="I5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1" t="inlineStr">
-        <is>
-          <t>1/6納期　本社出荷</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr"/>
-      <c r="L5" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="6">
-      <c r="A6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>20210105</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>スタンレー秦野</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>ＳＴＭ-３０-Ｔ２Ｌ塗料 (15KG)</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>20100203H</t>
-        </is>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="inlineStr"/>
-      <c r="I6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t>1/6納期本社出荷一号館NO.80</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr"/>
-      <c r="L6" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.8" footer="0.5" header="0.5" left="0.2" right="0.2" top="0.8"/>
-  <pageSetup fitToHeight="0" fitToWidth="1" orientation="landscape" paperSize="9"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1105,6 +1037,6 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Program/出荷実績照会_本社.xlsx
+++ b/Program/出荷実績照会_本社.xlsx
@@ -1,16 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_曜日違い" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NoData_通常" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="新潟運輸_通常" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -65,21 +63,89 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>7</col>
@@ -90,77 +156,17 @@
     <ext cx="2400300" cy="595312"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPr descr="Picture" id="1" name="Image 1"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>7</col>
-      <colOff>0</colOff>
-      <row>0</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2400300" cy="595312"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>7</col>
-      <colOff>0</colOff>
-      <row>0</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2400300" cy="595312"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -452,12 +458,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,42 +471,42 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="1.87" customWidth="1" min="1" max="1"/>
-    <col width="8.800000000000001" customWidth="1" min="2" max="2"/>
-    <col width="13.09" customWidth="1" min="3" max="3"/>
-    <col width="15.07" customWidth="1" min="4" max="4"/>
-    <col width="6.600000000000001" customWidth="1" min="5" max="5"/>
-    <col width="7.48" customWidth="1" min="6" max="6"/>
-    <col width="3.74" customWidth="1" min="7" max="7"/>
-    <col width="7.040000000000001" customWidth="1" min="8" max="8"/>
-    <col width="3.74" customWidth="1" min="9" max="9"/>
-    <col width="29.48" customWidth="1" min="10" max="10"/>
-    <col width="1.1" customWidth="1" min="11" max="11"/>
-    <col width="3.3" customWidth="1" min="12" max="12"/>
+    <col customWidth="1" max="1" min="1" width="1.87"/>
+    <col customWidth="1" max="2" min="2" width="8.800000000000001"/>
+    <col customWidth="1" max="3" min="3" width="13.09"/>
+    <col customWidth="1" max="4" min="4" width="39.70999999999999"/>
+    <col customWidth="1" max="5" min="5" width="9.9"/>
+    <col customWidth="1" max="6" min="6" width="7.48"/>
+    <col customWidth="1" max="7" min="7" width="3.74"/>
+    <col customWidth="1" max="8" min="8" width="7.700000000000001"/>
+    <col customWidth="1" max="9" min="9" width="3.74"/>
+    <col customWidth="1" max="10" min="10" width="16.72"/>
+    <col customWidth="1" max="11" min="11" width="1.1"/>
+    <col customWidth="1" max="12" min="12" width="3.3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23" customHeight="1">
+    <row customHeight="1" ht="23" r="1">
       <c r="E1" t="inlineStr">
         <is>
           <t>出荷実績照会</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="2">
       <c r="A2" t="inlineStr">
         <is>
           <t>出荷工場：@0001 本社工場</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>運送業者：U0009 新潟運輸     配送区分：4 曜日違い</t>
+          <t>運送業者：U0009 新潟運輸     配送区分：1 通常</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>行</t>
@@ -562,468 +568,284 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="5">
       <c r="A5" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210105</t>
+          <t>20210212</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>スリードリーム</t>
+          <t>築港横浜　第２</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>JVS-003（4KG)</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr"/>
+          <t>Ｕ－３３０シンナー (UN/14KG)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>21020304H</t>
+        </is>
+      </c>
       <c r="F5" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
           <t>CN</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr"/>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>FG10055</t>
+        </is>
+      </c>
       <c r="I5" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>1/7納期　本社出荷　池ノ谷社長宛</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr"/>
+          <t>2/15納期 本社出荷</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
       <c r="L5" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="6">
       <c r="A6" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>20210105</t>
+          <t>20210212</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>スリードリーム</t>
+          <t>築港横浜　第２</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>UVP-0274（4KG)</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr"/>
+          <t>ＳＲ－００１ Ａ (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>21020204H</t>
+        </is>
+      </c>
       <c r="F6" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
           <t>CN</t>
         </is>
       </c>
-      <c r="H6" s="1" t="inlineStr"/>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>FG10055</t>
+        </is>
+      </c>
       <c r="I6" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>1/7納期　本社出荷　池ノ谷社長宛</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr"/>
+          <t>2/15納期 本社出荷</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
       <c r="L6" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="7">
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>20210212</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>築港横浜　第２</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>ＳＲ－００１ Ｂ (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>21020309H</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr">
+        <is>
+          <t>FG10055</t>
+        </is>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>2/15納期 本社出荷</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L7" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="8">
+      <c r="A8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>20210212</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>築港横浜　第２</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>ＳＴＭ－３０－Ｔ１－ＣＨｼﾝﾅｰ (UN/14KG)</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>21020454T</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="inlineStr">
+        <is>
+          <t>FG10092</t>
+        </is>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1" t="inlineStr">
+        <is>
+          <t>2/15納期 本社出荷</t>
+        </is>
+      </c>
+      <c r="K8" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L8" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="9">
+      <c r="A9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>20210212</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>築港横浜　第２</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>ＳＴＭ－３０－Ｔ２－ＶＣ Ｃlear (UN/15KG</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="inlineStr">
+        <is>
+          <t>21020504H</t>
+        </is>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H9" s="1" t="inlineStr">
+        <is>
+          <t>FG10092</t>
+        </is>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1" t="inlineStr">
+        <is>
+          <t>2/15納期 本社出荷</t>
+        </is>
+      </c>
+      <c r="K9" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L9" s="1" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <pageMargins bottom="0.8" footer="0.5" header="0.5" left="0.2" right="0.2" top="0.8"/>
+  <pageSetup fitToHeight="0" fitToWidth="1" orientation="landscape" paperSize="9"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:L5"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="1.87" customWidth="1" min="1" max="1"/>
-    <col width="8.800000000000001" customWidth="1" min="2" max="2"/>
-    <col width="7.48" customWidth="1" min="3" max="3"/>
-    <col width="22.66" customWidth="1" min="4" max="4"/>
-    <col width="9.9" customWidth="1" min="5" max="5"/>
-    <col width="7.48" customWidth="1" min="6" max="6"/>
-    <col width="3.74" customWidth="1" min="7" max="7"/>
-    <col width="7.040000000000001" customWidth="1" min="8" max="8"/>
-    <col width="3.74" customWidth="1" min="9" max="9"/>
-    <col width="20.13" customWidth="1" min="10" max="10"/>
-    <col width="1.1" customWidth="1" min="11" max="11"/>
-    <col width="3.3" customWidth="1" min="12" max="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="23" customHeight="1">
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>出荷実績照会</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="18" customHeight="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>出荷工場：@0001 本社工場</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="18" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>運送業者：NoData NoData     配送区分：1 通常</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>行</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>売上日</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>納入先名</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>品名</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>ﾛｯﾄNo.</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>売上数量</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>単位</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>注文No.</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t>缶数</t>
-        </is>
-      </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>備考</t>
-        </is>
-      </c>
-      <c r="K4" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L4" s="1" t="inlineStr">
-        <is>
-          <t>add</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>20210105</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>柏真空</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>Ｐ－３プライマー (15KG)</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>20071331H</t>
-        </is>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr"/>
-      <c r="I5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1" t="inlineStr">
-        <is>
-          <t>1/7納期　大阪より直送</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr"/>
-      <c r="L5" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:L6"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="1.87" customWidth="1" min="1" max="1"/>
-    <col width="8.800000000000001" customWidth="1" min="2" max="2"/>
-    <col width="13.09" customWidth="1" min="3" max="3"/>
-    <col width="28.6" customWidth="1" min="4" max="4"/>
-    <col width="9.9" customWidth="1" min="5" max="5"/>
-    <col width="7.48" customWidth="1" min="6" max="6"/>
-    <col width="3.74" customWidth="1" min="7" max="7"/>
-    <col width="7.040000000000001" customWidth="1" min="8" max="8"/>
-    <col width="3.74" customWidth="1" min="9" max="9"/>
-    <col width="25.63" customWidth="1" min="10" max="10"/>
-    <col width="1.1" customWidth="1" min="11" max="11"/>
-    <col width="3.3" customWidth="1" min="12" max="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="23" customHeight="1">
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>出荷実績照会</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="18" customHeight="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>出荷工場：@0001 本社工場</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="18" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>運送業者：U0009 新潟運輸     配送区分：1 通常</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>行</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>売上日</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>納入先名</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>品名</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>ﾛｯﾄNo.</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>売上数量</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>単位</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>注文No.</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t>缶数</t>
-        </is>
-      </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>備考</t>
-        </is>
-      </c>
-      <c r="K4" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L4" s="1" t="inlineStr">
-        <is>
-          <t>add</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>20210105</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>伊坂藤枝</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>BS-421 B (4KG)</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr"/>
-      <c r="F5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr"/>
-      <c r="I5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1" t="inlineStr">
-        <is>
-          <t>1/6納期　本社出荷</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr"/>
-      <c r="L5" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>20210105</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>スタンレー秦野</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>ＳＴＭ-３０-Ｔ２Ｌ塗料 (15KG)</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>20100203H</t>
-        </is>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="inlineStr"/>
-      <c r="I6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t>1/6納期本社出荷一号館NO.80</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr"/>
-      <c r="L6" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1037,6 +859,6 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Program/出荷実績照会_本社.xlsx
+++ b/Program/出荷実績照会_本社.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="新潟運輸_通常" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="久留米_通常" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="トール_通常" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -63,89 +64,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>7</col>
@@ -156,17 +89,47 @@
     <ext cx="2400300" cy="595312"/>
     <pic>
       <nvPicPr>
-        <cNvPr descr="Picture" id="1" name="Image 1"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2400300" cy="595312"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -458,12 +421,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,42 +434,42 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="1.87"/>
-    <col customWidth="1" max="2" min="2" width="8.800000000000001"/>
-    <col customWidth="1" max="3" min="3" width="13.09"/>
-    <col customWidth="1" max="4" min="4" width="39.70999999999999"/>
-    <col customWidth="1" max="5" min="5" width="9.9"/>
-    <col customWidth="1" max="6" min="6" width="7.48"/>
-    <col customWidth="1" max="7" min="7" width="3.74"/>
-    <col customWidth="1" max="8" min="8" width="7.700000000000001"/>
-    <col customWidth="1" max="9" min="9" width="3.74"/>
-    <col customWidth="1" max="10" min="10" width="16.72"/>
-    <col customWidth="1" max="11" min="11" width="1.1"/>
-    <col customWidth="1" max="12" min="12" width="3.3"/>
+    <col width="1.87" customWidth="1" min="1" max="1"/>
+    <col width="8.800000000000001" customWidth="1" min="2" max="2"/>
+    <col width="9.350000000000001" customWidth="1" min="3" max="3"/>
+    <col width="19.69" customWidth="1" min="4" max="4"/>
+    <col width="9.9" customWidth="1" min="5" max="5"/>
+    <col width="7.48" customWidth="1" min="6" max="6"/>
+    <col width="3.74" customWidth="1" min="7" max="7"/>
+    <col width="7.040000000000001" customWidth="1" min="8" max="8"/>
+    <col width="3.74" customWidth="1" min="9" max="9"/>
+    <col width="16.06" customWidth="1" min="10" max="10"/>
+    <col width="1.1" customWidth="1" min="11" max="11"/>
+    <col width="3.3" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="23" r="1">
+    <row r="1" ht="23" customHeight="1">
       <c r="E1" t="inlineStr">
         <is>
           <t>出荷実績照会</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="2">
+    <row r="2" ht="18" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
           <t>出荷工場：@0001 本社工場</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="3">
+    <row r="3" ht="18" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>運送業者：U0009 新潟運輸     配送区分：1 通常</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="4">
+          <t>運送業者：U0005 久留米     配送区分：1 通常</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>行</t>
@@ -568,284 +531,262 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="5">
+    <row r="5" ht="18" customHeight="1">
       <c r="A5" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210212</t>
+          <t>20210215</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>築港横浜　第２</t>
+          <t>白水ＤＨＣ</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>Ｕ－３３０シンナー (UN/14KG)</t>
+          <t>ＳＴＭ－１塗料 (1KG)</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>21020304H</t>
+          <t>20112601H</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>FG10055</t>
-        </is>
-      </c>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr"/>
       <c r="I5" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>2/15納期 本社出荷</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
+          <t>本社出荷　第2工場</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr"/>
       <c r="L5" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="6">
-      <c r="A6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>20210212</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>築港横浜　第２</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>ＳＲ－００１ Ａ (UN/15KG)</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>21020204H</t>
-        </is>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>FG10055</t>
-        </is>
-      </c>
-      <c r="I6" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t>2/15納期 本社出荷</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L6" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="7">
-      <c r="A7" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>20210212</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>築港横浜　第２</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t>ＳＲ－００１ Ｂ (UN/15KG)</t>
-        </is>
-      </c>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
-          <t>21020309H</t>
-        </is>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="G7" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>FG10055</t>
-        </is>
-      </c>
-      <c r="I7" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="J7" s="1" t="inlineStr">
-        <is>
-          <t>2/15納期 本社出荷</t>
-        </is>
-      </c>
-      <c r="K7" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L7" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="8">
-      <c r="A8" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>20210212</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>築港横浜　第２</t>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
-        <is>
-          <t>ＳＴＭ－３０－Ｔ１－ＣＨｼﾝﾅｰ (UN/14KG)</t>
-        </is>
-      </c>
-      <c r="E8" s="1" t="inlineStr">
-        <is>
-          <t>21020454T</t>
-        </is>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H8" s="1" t="inlineStr">
-        <is>
-          <t>FG10092</t>
-        </is>
-      </c>
-      <c r="I8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1" t="inlineStr">
-        <is>
-          <t>2/15納期 本社出荷</t>
-        </is>
-      </c>
-      <c r="K8" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L8" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="9">
-      <c r="A9" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>20210212</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>築港横浜　第２</t>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
-        <is>
-          <t>ＳＴＭ－３０－Ｔ２－ＶＣ Ｃlear (UN/15KG</t>
-        </is>
-      </c>
-      <c r="E9" s="1" t="inlineStr">
-        <is>
-          <t>21020504H</t>
-        </is>
-      </c>
-      <c r="F9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H9" s="1" t="inlineStr">
-        <is>
-          <t>FG10092</t>
-        </is>
-      </c>
-      <c r="I9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" s="1" t="inlineStr">
-        <is>
-          <t>2/15納期 本社出荷</t>
-        </is>
-      </c>
-      <c r="K9" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L9" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins bottom="0.8" footer="0.5" header="0.5" left="0.2" right="0.2" top="0.8"/>
-  <pageSetup fitToHeight="0" fitToWidth="1" orientation="landscape" paperSize="9"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L6"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="1.87" customWidth="1" min="1" max="1"/>
+    <col width="8.800000000000001" customWidth="1" min="2" max="2"/>
+    <col width="11.22" customWidth="1" min="3" max="3"/>
+    <col width="29.91999999999999" customWidth="1" min="4" max="4"/>
+    <col width="6.600000000000001" customWidth="1" min="5" max="5"/>
+    <col width="7.48" customWidth="1" min="6" max="6"/>
+    <col width="3.74" customWidth="1" min="7" max="7"/>
+    <col width="7.040000000000001" customWidth="1" min="8" max="8"/>
+    <col width="3.74" customWidth="1" min="9" max="9"/>
+    <col width="7.48" customWidth="1" min="10" max="10"/>
+    <col width="1.1" customWidth="1" min="11" max="11"/>
+    <col width="3.3" customWidth="1" min="12" max="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="23" customHeight="1">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>出荷実績照会</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>出荷工場：@0001 本社工場</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>運送業者：U0001 トール     配送区分：1 通常</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>行</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>売上日</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>納入先名</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>品名</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>ﾛｯﾄNo.</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>売上数量</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>単位</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>注文No.</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>缶数</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="18" customHeight="1">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>20210215</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>旭真空</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>ＦＡ－３４１艶消剤　（１５ＫＧ）</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr"/>
+      <c r="F5" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr"/>
+      <c r="I5" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>本社出荷</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr"/>
+      <c r="L5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>20210215</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>鵜飼塗料商事</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>Ｈ－ホワイト－０５０ (3KG)</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr"/>
+      <c r="F6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr"/>
+      <c r="I6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>本社出荷</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr"/>
+      <c r="L6" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -859,6 +800,6 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Program/出荷実績照会_本社.xlsx
+++ b/Program/出荷実績照会_本社.xlsx
@@ -1,15 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="久留米_通常" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="トール_通常" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="トール_通常" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -64,21 +63,89 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>7</col>
@@ -89,47 +156,17 @@
     <ext cx="2400300" cy="595312"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPr descr="Picture" id="1" name="Image 1"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>7</col>
-      <colOff>0</colOff>
-      <row>0</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2400300" cy="595312"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -421,12 +458,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,42 +471,42 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="1.87" customWidth="1" min="1" max="1"/>
-    <col width="8.800000000000001" customWidth="1" min="2" max="2"/>
-    <col width="9.350000000000001" customWidth="1" min="3" max="3"/>
-    <col width="19.69" customWidth="1" min="4" max="4"/>
-    <col width="9.9" customWidth="1" min="5" max="5"/>
-    <col width="7.48" customWidth="1" min="6" max="6"/>
-    <col width="3.74" customWidth="1" min="7" max="7"/>
-    <col width="7.040000000000001" customWidth="1" min="8" max="8"/>
-    <col width="3.74" customWidth="1" min="9" max="9"/>
-    <col width="16.06" customWidth="1" min="10" max="10"/>
-    <col width="1.1" customWidth="1" min="11" max="11"/>
-    <col width="3.3" customWidth="1" min="12" max="12"/>
+    <col customWidth="1" max="1" min="1" width="1.87"/>
+    <col customWidth="1" max="2" min="2" width="8.800000000000001"/>
+    <col customWidth="1" max="3" min="3" width="11.22"/>
+    <col customWidth="1" max="4" min="4" width="29.91999999999999"/>
+    <col customWidth="1" max="5" min="5" width="9.9"/>
+    <col customWidth="1" max="6" min="6" width="7.48"/>
+    <col customWidth="1" max="7" min="7" width="3.74"/>
+    <col customWidth="1" max="8" min="8" width="7.040000000000001"/>
+    <col customWidth="1" max="9" min="9" width="3.74"/>
+    <col customWidth="1" max="10" min="10" width="16.06"/>
+    <col customWidth="1" max="11" min="11" width="1.1"/>
+    <col customWidth="1" max="12" min="12" width="3.3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23" customHeight="1">
+    <row customHeight="1" ht="23" r="1">
       <c r="E1" t="inlineStr">
         <is>
           <t>出荷実績照会</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="2">
       <c r="A2" t="inlineStr">
         <is>
           <t>出荷工場：@0001 本社工場</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>運送業者：U0005 久留米     配送区分：1 通常</t>
+          <t>運送業者：U0001 トール     配送区分：1 通常</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>行</t>
@@ -531,7 +568,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="5">
       <c r="A5" s="1" t="n">
         <v>1</v>
       </c>
@@ -542,34 +579,34 @@
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>白水ＤＨＣ</t>
+          <t>旭真空</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>ＳＴＭ－１塗料 (1KG)</t>
+          <t>ＦＡ－３４１艶消剤　（１５ＫＧ）</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>20112601H</t>
+          <t>21021208H</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
-          <t>KG</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="H5" s="1" t="inlineStr"/>
       <c r="I5" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>本社出荷　第2工場</t>
+          <t>本社出荷</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr"/>
@@ -577,216 +614,106 @@
         <v>1</v>
       </c>
     </row>
+    <row customHeight="1" ht="18" r="6">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>20210215</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>鵜飼塗料商事</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>Ｈ－ホワイト－０５０ (3KG)</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>21021207H</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr"/>
+      <c r="I6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>本社出荷</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr"/>
+      <c r="L6" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="7">
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>20210215</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>白水ＤＨＣ</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>ＳＴＭ－１塗料 (1KG)</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>20112601H</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr"/>
+      <c r="I7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>本社出荷　第2工場</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr"/>
+      <c r="L7" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <pageMargins bottom="0.8" footer="0.5" header="0.5" left="0.2" right="0.2" top="0.8"/>
+  <pageSetup fitToHeight="0" fitToWidth="1" orientation="landscape" paperSize="9"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:L6"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="1.87" customWidth="1" min="1" max="1"/>
-    <col width="8.800000000000001" customWidth="1" min="2" max="2"/>
-    <col width="11.22" customWidth="1" min="3" max="3"/>
-    <col width="29.91999999999999" customWidth="1" min="4" max="4"/>
-    <col width="6.600000000000001" customWidth="1" min="5" max="5"/>
-    <col width="7.48" customWidth="1" min="6" max="6"/>
-    <col width="3.74" customWidth="1" min="7" max="7"/>
-    <col width="7.040000000000001" customWidth="1" min="8" max="8"/>
-    <col width="3.74" customWidth="1" min="9" max="9"/>
-    <col width="7.48" customWidth="1" min="10" max="10"/>
-    <col width="1.1" customWidth="1" min="11" max="11"/>
-    <col width="3.3" customWidth="1" min="12" max="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="23" customHeight="1">
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>出荷実績照会</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="18" customHeight="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>出荷工場：@0001 本社工場</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="18" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>運送業者：U0001 トール     配送区分：1 通常</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>行</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>売上日</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>納入先名</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>品名</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>ﾛｯﾄNo.</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>売上数量</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>単位</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>注文No.</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t>缶数</t>
-        </is>
-      </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>備考</t>
-        </is>
-      </c>
-      <c r="K4" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L4" s="1" t="inlineStr">
-        <is>
-          <t>add</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>20210215</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>旭真空</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>ＦＡ－３４１艶消剤　（１５ＫＧ）</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr"/>
-      <c r="F5" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr"/>
-      <c r="I5" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="J5" s="1" t="inlineStr">
-        <is>
-          <t>本社出荷</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr"/>
-      <c r="L5" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>20210215</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>鵜飼塗料商事</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>Ｈ－ホワイト－０５０ (3KG)</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr"/>
-      <c r="F6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="inlineStr"/>
-      <c r="I6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t>本社出荷</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr"/>
-      <c r="L6" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -800,6 +727,6 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Program/出荷実績照会_本社.xlsx
+++ b/Program/出荷実績照会_本社.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="トール_通常" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="トール_通常_輸出N" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -63,89 +63,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>7</col>
@@ -156,17 +88,17 @@
     <ext cx="2400300" cy="595312"/>
     <pic>
       <nvPicPr>
-        <cNvPr descr="Picture" id="1" name="Image 1"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -458,7 +390,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
@@ -471,42 +403,42 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="1.87"/>
-    <col customWidth="1" max="2" min="2" width="8.800000000000001"/>
-    <col customWidth="1" max="3" min="3" width="11.22"/>
-    <col customWidth="1" max="4" min="4" width="29.91999999999999"/>
-    <col customWidth="1" max="5" min="5" width="9.9"/>
-    <col customWidth="1" max="6" min="6" width="7.48"/>
-    <col customWidth="1" max="7" min="7" width="3.74"/>
-    <col customWidth="1" max="8" min="8" width="7.040000000000001"/>
-    <col customWidth="1" max="9" min="9" width="3.74"/>
-    <col customWidth="1" max="10" min="10" width="16.06"/>
-    <col customWidth="1" max="11" min="11" width="1.1"/>
-    <col customWidth="1" max="12" min="12" width="3.3"/>
+    <col width="2.42" customWidth="1" min="1" max="1"/>
+    <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
+    <col width="11.77" customWidth="1" min="3" max="3"/>
+    <col width="30.47" customWidth="1" min="4" max="4"/>
+    <col width="10.45" customWidth="1" min="5" max="5"/>
+    <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
+    <col width="4.29" customWidth="1" min="7" max="7"/>
+    <col width="7.590000000000001" customWidth="1" min="8" max="8"/>
+    <col width="4.29" customWidth="1" min="9" max="9"/>
+    <col width="16.61" customWidth="1" min="10" max="10"/>
+    <col width="1.65" customWidth="1" min="11" max="11"/>
+    <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="23" r="1">
+    <row r="1" ht="23" customHeight="1">
       <c r="E1" t="inlineStr">
         <is>
           <t>出荷実績照会</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="2">
+    <row r="2" ht="18" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
           <t>出荷工場：@0001 本社工場</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="3">
+    <row r="3" ht="18" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>運送業者：U0001 トール     配送区分：1 通常</t>
+          <t>運送業者：U0001 トール   配送区分：1 通常  輸出：N</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="4">
+    <row r="4" ht="18" customHeight="1">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>行</t>
@@ -568,7 +500,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="5">
+    <row r="5" ht="18" customHeight="1">
       <c r="A5" s="1" t="n">
         <v>1</v>
       </c>
@@ -614,7 +546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="6">
+    <row r="6" ht="18" customHeight="1">
       <c r="A6" s="1" t="n">
         <v>2</v>
       </c>
@@ -660,7 +592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="7">
+    <row r="7" ht="18" customHeight="1">
       <c r="A7" s="1" t="n">
         <v>3</v>
       </c>
@@ -707,9 +639,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.8" footer="0.5" header="0.5" left="0.2" right="0.2" top="0.8"/>
-  <pageSetup fitToHeight="0" fitToWidth="1" orientation="landscape" paperSize="9"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -727,6 +659,6 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Program/出荷実績照会_本社.xlsx
+++ b/Program/出荷実績照会_本社.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="トール_通常_輸出N" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="新潟運輸_通常_輸出N" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -63,21 +63,89 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>7</col>
@@ -88,17 +156,17 @@
     <ext cx="2400300" cy="595312"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPr descr="Picture" id="1" name="Image 1"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -390,12 +458,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -403,42 +471,42 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="2.42" customWidth="1" min="1" max="1"/>
-    <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
-    <col width="11.77" customWidth="1" min="3" max="3"/>
-    <col width="30.47" customWidth="1" min="4" max="4"/>
-    <col width="10.45" customWidth="1" min="5" max="5"/>
-    <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
-    <col width="4.29" customWidth="1" min="7" max="7"/>
-    <col width="7.590000000000001" customWidth="1" min="8" max="8"/>
-    <col width="4.29" customWidth="1" min="9" max="9"/>
-    <col width="16.61" customWidth="1" min="10" max="10"/>
-    <col width="1.65" customWidth="1" min="11" max="11"/>
-    <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
+    <col customWidth="1" max="1" min="1" width="2.42"/>
+    <col customWidth="1" max="2" min="2" width="9.350000000000001"/>
+    <col customWidth="1" max="3" min="3" width="15.51"/>
+    <col customWidth="1" max="4" min="4" width="24.31"/>
+    <col customWidth="1" max="5" min="5" width="10.45"/>
+    <col customWidth="1" max="6" min="6" width="8.030000000000001"/>
+    <col customWidth="1" max="7" min="7" width="4.29"/>
+    <col customWidth="1" max="8" min="8" width="7.590000000000001"/>
+    <col customWidth="1" max="9" min="9" width="4.29"/>
+    <col customWidth="1" max="10" min="10" width="8.030000000000001"/>
+    <col customWidth="1" max="11" min="11" width="1.65"/>
+    <col customWidth="1" max="12" min="12" width="3.850000000000001"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23" customHeight="1">
+    <row customHeight="1" ht="23" r="1">
       <c r="E1" t="inlineStr">
         <is>
           <t>出荷実績照会</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="2">
       <c r="A2" t="inlineStr">
         <is>
           <t>出荷工場：@0001 本社工場</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>運送業者：U0001 トール   配送区分：1 通常  輸出：N</t>
+          <t>運送業者：U0009 新潟運輸   配送区分：1 通常  輸出：N</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>行</t>
@@ -500,32 +568,32 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="5">
       <c r="A5" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210215</t>
+          <t>20210217</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>旭真空</t>
+          <t>島田工業所　川口</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>ＦＡ－３４１艶消剤　（１５ＫＧ）</t>
+          <t>３３００ シンナー (15KG)</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>21021208H</t>
+          <t>20072001H</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
@@ -534,7 +602,7 @@
       </c>
       <c r="H5" s="1" t="inlineStr"/>
       <c r="I5" s="1" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
@@ -543,105 +611,13 @@
       </c>
       <c r="K5" s="1" t="inlineStr"/>
       <c r="L5" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="1" t="n">
         <v>2</v>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>20210215</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>鵜飼塗料商事</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>Ｈ－ホワイト－０５０ (3KG)</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>21021207H</t>
-        </is>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="inlineStr"/>
-      <c r="I6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t>本社出荷</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr"/>
-      <c r="L6" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>20210215</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>白水ＤＨＣ</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t>ＳＴＭ－１塗料 (1KG)</t>
-        </is>
-      </c>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
-          <t>20112601H</t>
-        </is>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="G7" s="1" t="inlineStr">
-        <is>
-          <t>KG</t>
-        </is>
-      </c>
-      <c r="H7" s="1" t="inlineStr"/>
-      <c r="I7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="J7" s="1" t="inlineStr">
-        <is>
-          <t>本社出荷　第2工場</t>
-        </is>
-      </c>
-      <c r="K7" s="1" t="inlineStr"/>
-      <c r="L7" s="1" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <pageMargins bottom="0.8" footer="0.5" header="0.5" left="0.2" right="0.2" top="0.8"/>
+  <pageSetup fitToHeight="0" fitToWidth="1" orientation="landscape" paperSize="9"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -659,6 +635,6 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Program/出荷実績照会_本社.xlsx
+++ b/Program/出荷実績照会_本社.xlsx
@@ -463,7 +463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,14 +473,14 @@
   <cols>
     <col customWidth="1" max="1" min="1" width="2.42"/>
     <col customWidth="1" max="2" min="2" width="9.350000000000001"/>
-    <col customWidth="1" max="3" min="3" width="15.51"/>
-    <col customWidth="1" max="4" min="4" width="24.31"/>
+    <col customWidth="1" max="3" min="3" width="13.64"/>
+    <col customWidth="1" max="4" min="4" width="23.21"/>
     <col customWidth="1" max="5" min="5" width="10.45"/>
     <col customWidth="1" max="6" min="6" width="8.030000000000001"/>
     <col customWidth="1" max="7" min="7" width="4.29"/>
-    <col customWidth="1" max="8" min="8" width="7.590000000000001"/>
+    <col customWidth="1" max="8" min="8" width="8.25"/>
     <col customWidth="1" max="9" min="9" width="4.29"/>
-    <col customWidth="1" max="10" min="10" width="8.030000000000001"/>
+    <col customWidth="1" max="10" min="10" width="18.04"/>
     <col customWidth="1" max="11" min="11" width="1.65"/>
     <col customWidth="1" max="12" min="12" width="3.850000000000001"/>
   </cols>
@@ -574,35 +574,35 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210217</t>
+          <t>20210218</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>島田工業所　川口</t>
+          <t>不二蒸着</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>３３００ シンナー (15KG)</t>
+          <t>ＳＵ－９３０ Ａ液 (1KG)</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>20072001H</t>
+          <t>21021506H</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>KG</t>
         </is>
       </c>
       <c r="H5" s="1" t="inlineStr"/>
       <c r="I5" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
@@ -611,7 +611,103 @@
       </c>
       <c r="K5" s="1" t="inlineStr"/>
       <c r="L5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="6">
+      <c r="A6" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>20210218</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>不二蒸着</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>ＳＵ－９３０ Ｂ液 (1KG)</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>21021508H</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr"/>
+      <c r="I6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>本社出荷</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr"/>
+      <c r="L6" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="7">
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>20210218</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>タキ倉庫　榛南</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>ＰＲ－Ａ(改） (15KG)</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>21021203H</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr">
+        <is>
+          <t>T543B97</t>
+        </is>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>2/19納期　本社出荷</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr"/>
+      <c r="L7" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Program/出荷実績照会_本社.xlsx
+++ b/Program/出荷実績照会_本社.xlsx
@@ -463,7 +463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,14 +473,14 @@
   <cols>
     <col customWidth="1" max="1" min="1" width="2.42"/>
     <col customWidth="1" max="2" min="2" width="9.350000000000001"/>
-    <col customWidth="1" max="3" min="3" width="13.64"/>
-    <col customWidth="1" max="4" min="4" width="23.21"/>
-    <col customWidth="1" max="5" min="5" width="10.45"/>
+    <col customWidth="1" max="3" min="3" width="8.030000000000001"/>
+    <col customWidth="1" max="4" min="4" width="29.15"/>
+    <col customWidth="1" max="5" min="5" width="7.15"/>
     <col customWidth="1" max="6" min="6" width="8.030000000000001"/>
     <col customWidth="1" max="7" min="7" width="4.29"/>
-    <col customWidth="1" max="8" min="8" width="8.25"/>
+    <col customWidth="1" max="8" min="8" width="13.75"/>
     <col customWidth="1" max="9" min="9" width="4.29"/>
-    <col customWidth="1" max="10" min="10" width="18.04"/>
+    <col customWidth="1" max="10" min="10" width="8.030000000000001"/>
     <col customWidth="1" max="11" min="11" width="1.65"/>
     <col customWidth="1" max="12" min="12" width="3.850000000000001"/>
   </cols>
@@ -574,39 +574,39 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210218</t>
+          <t>20210219</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>不二蒸着</t>
+          <t>高圧化工</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>ＳＵ－９３０ Ａ液 (1KG)</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>21021506H</t>
-        </is>
-      </c>
+          <t>ＵＶ－ＰＰＮｏ３ Ａ液 (15KG)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr"/>
       <c r="F5" s="1" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
-          <t>KG</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr"/>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>1090000840-1</t>
+        </is>
+      </c>
       <c r="I5" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>本社出荷</t>
+          <t>大阪直送</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr"/>
@@ -620,93 +620,43 @@
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>20210218</t>
+          <t>20210219</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>不二蒸着</t>
+          <t>高圧化工</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>ＳＵ－９３０ Ｂ液 (1KG)</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>21021508H</t>
-        </is>
-      </c>
+          <t>ＵＶ－ＰＰＮｏ３ Ｂ液 (3.1KG)</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr"/>
       <c r="F6" s="1" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
-          <t>KG</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="inlineStr"/>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>1090000840-2</t>
+        </is>
+      </c>
       <c r="I6" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>本社出荷</t>
+          <t>大阪直送</t>
         </is>
       </c>
       <c r="K6" s="1" t="inlineStr"/>
       <c r="L6" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="7">
-      <c r="A7" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>20210218</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>タキ倉庫　榛南</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t>ＰＲ－Ａ(改） (15KG)</t>
-        </is>
-      </c>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
-          <t>21021203H</t>
-        </is>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="G7" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>T543B97</t>
-        </is>
-      </c>
-      <c r="I7" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="J7" s="1" t="inlineStr">
-        <is>
-          <t>2/19納期　本社出荷</t>
-        </is>
-      </c>
-      <c r="K7" s="1" t="inlineStr"/>
-      <c r="L7" s="1" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Program/出荷実績照会_本社.xlsx
+++ b/Program/出荷実績照会_本社.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="新潟運輸_通常_輸出N" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NoData_通常_輸出N" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
@@ -475,7 +475,7 @@
     <col customWidth="1" max="2" min="2" width="9.350000000000001"/>
     <col customWidth="1" max="3" min="3" width="8.030000000000001"/>
     <col customWidth="1" max="4" min="4" width="29.15"/>
-    <col customWidth="1" max="5" min="5" width="7.15"/>
+    <col customWidth="1" max="5" min="5" width="10.45"/>
     <col customWidth="1" max="6" min="6" width="8.030000000000001"/>
     <col customWidth="1" max="7" min="7" width="4.29"/>
     <col customWidth="1" max="8" min="8" width="13.75"/>
@@ -502,7 +502,7 @@
     <row customHeight="1" ht="18" r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>運送業者：U0009 新潟運輸   配送区分：1 通常  輸出：N</t>
+          <t>運送業者：NoData NoData   配送区分：1 通常  輸出：N</t>
         </is>
       </c>
     </row>
@@ -587,7 +587,11 @@
           <t>ＵＶ－ＰＰＮｏ３ Ａ液 (15KG)</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr"/>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>20112431H</t>
+        </is>
+      </c>
       <c r="F5" s="1" t="n">
         <v>2</v>
       </c>
@@ -633,7 +637,11 @@
           <t>ＵＶ－ＰＰＮｏ３ Ｂ液 (3.1KG)</t>
         </is>
       </c>
-      <c r="E6" s="1" t="inlineStr"/>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>20112481T</t>
+        </is>
+      </c>
       <c r="F6" s="1" t="n">
         <v>4</v>
       </c>

--- a/Program/出荷実績照会_本社.xlsx
+++ b/Program/出荷実績照会_本社.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="NoData_通常_輸出N" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常_輸出N" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NoData_曜日違い_輸出N" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -63,16 +64,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -145,7 +146,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>7</col>
@@ -156,17 +157,47 @@
     <ext cx="2400300" cy="595312"/>
     <pic>
       <nvPicPr>
-        <cNvPr descr="Picture" id="1" name="Image 1"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2400300" cy="595312"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -458,12 +489,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,42 +502,42 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="2.42"/>
-    <col customWidth="1" max="2" min="2" width="9.350000000000001"/>
-    <col customWidth="1" max="3" min="3" width="8.030000000000001"/>
-    <col customWidth="1" max="4" min="4" width="29.15"/>
-    <col customWidth="1" max="5" min="5" width="10.45"/>
-    <col customWidth="1" max="6" min="6" width="8.030000000000001"/>
-    <col customWidth="1" max="7" min="7" width="4.29"/>
-    <col customWidth="1" max="8" min="8" width="13.75"/>
-    <col customWidth="1" max="9" min="9" width="4.29"/>
-    <col customWidth="1" max="10" min="10" width="8.030000000000001"/>
-    <col customWidth="1" max="11" min="11" width="1.65"/>
-    <col customWidth="1" max="12" min="12" width="3.850000000000001"/>
+    <col width="2.42" customWidth="1" min="1" max="1"/>
+    <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
+    <col width="11.77" customWidth="1" min="3" max="3"/>
+    <col width="22" customWidth="1" min="4" max="4"/>
+    <col width="7.15" customWidth="1" min="5" max="5"/>
+    <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
+    <col width="4.29" customWidth="1" min="7" max="7"/>
+    <col width="7.590000000000001" customWidth="1" min="8" max="8"/>
+    <col width="4.29" customWidth="1" min="9" max="9"/>
+    <col width="8.030000000000001" customWidth="1" min="10" max="10"/>
+    <col width="1.65" customWidth="1" min="11" max="11"/>
+    <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="23" r="1">
+    <row r="1" ht="23" customHeight="1">
       <c r="E1" t="inlineStr">
         <is>
           <t>出荷実績照会</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="2">
+    <row r="2" ht="18" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
           <t>出荷工場：@0001 本社工場</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="3">
+    <row r="3" ht="18" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>運送業者：NoData NoData   配送区分：1 通常  輸出：N</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="4">
+          <t>運送業者：U0009 新潟運輸   配送区分：1 通常  輸出：N</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>行</t>
@@ -568,49 +599,41 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="5">
+    <row r="5" ht="18" customHeight="1">
       <c r="A5" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210219</t>
+          <t>20210226</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>高圧化工</t>
+          <t>ヘイワテクノ</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>ＵＶ－ＰＰＮｏ３ Ａ液 (15KG)</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>20112431H</t>
-        </is>
-      </c>
+          <t>K-164NPアンダー（4KG)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr"/>
       <c r="F5" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
           <t>CN</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>1090000840-1</t>
-        </is>
-      </c>
+      <c r="H5" s="1" t="inlineStr"/>
       <c r="I5" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>大阪直送</t>
+          <t>本社出荷</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr"/>
@@ -618,64 +641,178 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="6">
-      <c r="A6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>20210219</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>高圧化工</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>ＵＶ－ＰＰＮｏ３ Ｂ液 (3.1KG)</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>20112481T</t>
-        </is>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>1090000840-2</t>
-        </is>
-      </c>
-      <c r="I6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t>大阪直送</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr"/>
-      <c r="L6" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins bottom="0.8" footer="0.5" header="0.5" left="0.2" right="0.2" top="0.8"/>
-  <pageSetup fitToHeight="0" fitToWidth="1" orientation="landscape" paperSize="9"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="2.42" customWidth="1" min="1" max="1"/>
+    <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
+    <col width="8.690000000000001" customWidth="1" min="3" max="3"/>
+    <col width="30.36" customWidth="1" min="4" max="4"/>
+    <col width="7.15" customWidth="1" min="5" max="5"/>
+    <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
+    <col width="4.29" customWidth="1" min="7" max="7"/>
+    <col width="7.590000000000001" customWidth="1" min="8" max="8"/>
+    <col width="4.29" customWidth="1" min="9" max="9"/>
+    <col width="17.38" customWidth="1" min="10" max="10"/>
+    <col width="1.65" customWidth="1" min="11" max="11"/>
+    <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="23" customHeight="1">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>出荷実績照会</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>出荷工場：@0001 本社工場</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>運送業者：NoData NoData   配送区分：4 曜日違い  輸出：N</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>行</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>売上日</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>納入先名</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>品名</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>ﾛｯﾄNo.</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>売上数量</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>単位</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>注文No.</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>缶数</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="18" customHeight="1">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>20210226</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>秩父ｲﾜｻｷ</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>Ｎ－１０ラッカーシンナー (16?）</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>222105</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr"/>
+      <c r="I5" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>大阪直送　橋本様宛</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr"/>
+      <c r="L5" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -689,6 +826,6 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Program/出荷実績照会_本社.xlsx
+++ b/Program/出荷実績照会_本社.xlsx
@@ -7,8 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常_輸出N" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NoData_曜日違い_輸出N" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_曜日違い_輸出Y" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_曜日違い_輸出N" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
@@ -504,14 +504,14 @@
   <cols>
     <col width="2.42" customWidth="1" min="1" max="1"/>
     <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
-    <col width="11.77" customWidth="1" min="3" max="3"/>
-    <col width="22" customWidth="1" min="4" max="4"/>
-    <col width="7.15" customWidth="1" min="5" max="5"/>
+    <col width="17.38" customWidth="1" min="3" max="3"/>
+    <col width="27.61" customWidth="1" min="4" max="4"/>
+    <col width="10.45" customWidth="1" min="5" max="5"/>
     <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
     <col width="4.29" customWidth="1" min="7" max="7"/>
-    <col width="7.590000000000001" customWidth="1" min="8" max="8"/>
+    <col width="8.25" customWidth="1" min="8" max="8"/>
     <col width="4.29" customWidth="1" min="9" max="9"/>
-    <col width="8.030000000000001" customWidth="1" min="10" max="10"/>
+    <col width="19.14" customWidth="1" min="10" max="10"/>
     <col width="1.65" customWidth="1" min="11" max="11"/>
     <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
   </cols>
@@ -533,7 +533,7 @@
     <row r="3" ht="18" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>運送業者：U0009 新潟運輸   配送区分：1 通常  輸出：N</t>
+          <t>運送業者：U0009 新潟運輸   配送区分：4 曜日違い  輸出：Y</t>
         </is>
       </c>
     </row>
@@ -605,38 +605,50 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210226</t>
+          <t>20201222</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>ヘイワテクノ</t>
+          <t>日本通運㈱中部空港</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>K-164NPアンダー（4KG)</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr"/>
+          <t>ＰＲ－Ａ（ＫＡI） (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>20121506H</t>
+        </is>
+      </c>
       <c r="F5" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
           <t>CN</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr"/>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>IID8570</t>
+        </is>
+      </c>
       <c r="I5" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>本社出荷</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr"/>
+          <t>12/24納期　本社出荷</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
       <c r="L5" s="1" t="n">
         <v>1</v>
       </c>
@@ -654,7 +666,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -664,14 +676,14 @@
   <cols>
     <col width="2.42" customWidth="1" min="1" max="1"/>
     <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
-    <col width="8.690000000000001" customWidth="1" min="3" max="3"/>
-    <col width="30.36" customWidth="1" min="4" max="4"/>
-    <col width="7.15" customWidth="1" min="5" max="5"/>
+    <col width="11.77" customWidth="1" min="3" max="3"/>
+    <col width="30.69" customWidth="1" min="4" max="4"/>
+    <col width="10.45" customWidth="1" min="5" max="5"/>
     <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
     <col width="4.29" customWidth="1" min="7" max="7"/>
     <col width="7.590000000000001" customWidth="1" min="8" max="8"/>
     <col width="4.29" customWidth="1" min="9" max="9"/>
-    <col width="17.38" customWidth="1" min="10" max="10"/>
+    <col width="19.14" customWidth="1" min="10" max="10"/>
     <col width="1.65" customWidth="1" min="11" max="11"/>
     <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
   </cols>
@@ -693,7 +705,7 @@
     <row r="3" ht="18" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>運送業者：NoData NoData   配送区分：4 曜日違い  輸出：N</t>
+          <t>運送業者：U0009 新潟運輸   配送区分：4 曜日違い  輸出：N</t>
         </is>
       </c>
     </row>
@@ -765,26 +777,26 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210226</t>
+          <t>20201222</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>秩父ｲﾜｻｷ</t>
+          <t>トータス技実</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>Ｎ－１０ラッカーシンナー (16?）</t>
+          <t>ＳＴＨ－３５０Ｍアンダー (15KG)</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>222105</t>
+          <t>20100901H</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
@@ -793,15 +805,107 @@
       </c>
       <c r="H5" s="1" t="inlineStr"/>
       <c r="I5" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>大阪直送　橋本様宛</t>
+          <t>12/24納期　本社出荷</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr"/>
       <c r="L5" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>20201222</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>トータス技実</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>ＳＴＨ－３５０Ｍアンダー (15KG)</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>20112703H</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr"/>
+      <c r="I6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>12/24納期　本社出荷</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr"/>
+      <c r="L6" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" ht="18" customHeight="1">
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>20201222</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>トータス技実</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>ＲＴ－３５Ｍ トップ (16KG)</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>20102303H</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr"/>
+      <c r="I7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>12/24納期　本社出荷</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr"/>
+      <c r="L7" s="1" t="n">
         <v>2</v>
       </c>
     </row>

--- a/Program/出荷実績照会_本社.xlsx
+++ b/Program/出荷実績照会_本社.xlsx
@@ -7,8 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_曜日違い_輸出Y" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_曜日違い_輸出N" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常_輸出N" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常_輸出Y" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
@@ -494,7 +494,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,14 +504,14 @@
   <cols>
     <col width="2.42" customWidth="1" min="1" max="1"/>
     <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
-    <col width="17.38" customWidth="1" min="3" max="3"/>
-    <col width="27.61" customWidth="1" min="4" max="4"/>
+    <col width="11.77" customWidth="1" min="3" max="3"/>
+    <col width="22.88" customWidth="1" min="4" max="4"/>
     <col width="10.45" customWidth="1" min="5" max="5"/>
     <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
     <col width="4.29" customWidth="1" min="7" max="7"/>
-    <col width="8.25" customWidth="1" min="8" max="8"/>
+    <col width="7.590000000000001" customWidth="1" min="8" max="8"/>
     <col width="4.29" customWidth="1" min="9" max="9"/>
-    <col width="19.14" customWidth="1" min="10" max="10"/>
+    <col width="8.030000000000001" customWidth="1" min="10" max="10"/>
     <col width="1.65" customWidth="1" min="11" max="11"/>
     <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
   </cols>
@@ -533,7 +533,7 @@
     <row r="3" ht="18" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>運送業者：U0009 新潟運輸   配送区分：4 曜日違い  輸出：Y</t>
+          <t>運送業者：U0009 新潟運輸   配送区分：1 通常  輸出：N</t>
         </is>
       </c>
     </row>
@@ -605,51 +605,89 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20201222</t>
+          <t>20210308</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>日本通運㈱中部空港</t>
+          <t>日本バンパー</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>ＰＲ－Ａ（ＫＡI） (UN/15KG)</t>
+          <t>エコーＣ 剥離剤 (18㍑）</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>20121506H</t>
+          <t>20101201H</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
           <t>CN</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>IID8570</t>
-        </is>
-      </c>
+      <c r="H5" s="1" t="inlineStr"/>
       <c r="I5" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>12/24納期　本社出荷</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
+          <t>本社出荷</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr"/>
       <c r="L5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>20210308</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>日本バンパー</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>エコーＣ 剥離剤 (18㍑）</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>21011807H</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr"/>
+      <c r="I6" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>本社出荷</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr"/>
+      <c r="L6" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,7 +704,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -677,13 +715,13 @@
     <col width="2.42" customWidth="1" min="1" max="1"/>
     <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
     <col width="11.77" customWidth="1" min="3" max="3"/>
-    <col width="30.69" customWidth="1" min="4" max="4"/>
+    <col width="31.35" customWidth="1" min="4" max="4"/>
     <col width="10.45" customWidth="1" min="5" max="5"/>
     <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
     <col width="4.29" customWidth="1" min="7" max="7"/>
-    <col width="7.590000000000001" customWidth="1" min="8" max="8"/>
+    <col width="8.25" customWidth="1" min="8" max="8"/>
     <col width="4.29" customWidth="1" min="9" max="9"/>
-    <col width="19.14" customWidth="1" min="10" max="10"/>
+    <col width="8.030000000000001" customWidth="1" min="10" max="10"/>
     <col width="1.65" customWidth="1" min="11" max="11"/>
     <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
   </cols>
@@ -705,7 +743,7 @@
     <row r="3" ht="18" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>運送業者：U0009 新潟運輸   配送区分：4 曜日違い  輸出：N</t>
+          <t>運送業者：U0009 新潟運輸   配送区分：1 通常  輸出：Y</t>
         </is>
       </c>
     </row>
@@ -777,44 +815,52 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20201222</t>
+          <t>20210308</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>トータス技実</t>
+          <t>築港　名古屋</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>ＳＴＨ－３５０Ｍアンダー (15KG)</t>
+          <t>ＳＵ－９３０ Ａ液 (UN/15KG)</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>20100901H</t>
+          <t>21021505H</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
           <t>CN</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr"/>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>FG10081</t>
+        </is>
+      </c>
       <c r="I5" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>12/24納期　本社出荷</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr"/>
+          <t>本社出荷</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
       <c r="L5" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1">
@@ -823,44 +869,52 @@
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>20201222</t>
+          <t>20210308</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>トータス技実</t>
+          <t>築港　名古屋</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>ＳＴＨ－３５０Ｍアンダー (15KG)</t>
+          <t>ＳＵ－９３０ Ｂ液 (UN/15KG)</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>20112703H</t>
+          <t>21021507H</t>
         </is>
       </c>
       <c r="F6" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
           <t>CN</t>
         </is>
       </c>
-      <c r="H6" s="1" t="inlineStr"/>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>FG10081</t>
+        </is>
+      </c>
       <c r="I6" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>12/24納期　本社出荷</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr"/>
+          <t>本社出荷</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
       <c r="L6" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1">
@@ -869,44 +923,160 @@
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>20201222</t>
+          <t>20210308</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>トータス技実</t>
+          <t>築港　名古屋</t>
         </is>
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>ＲＴ－３５Ｍ トップ (16KG)</t>
+          <t>ＳＵ－９３０ シンナー (UN/14KG)</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>20102303H</t>
+          <t>21022303H</t>
         </is>
       </c>
       <c r="F7" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" s="1" t="inlineStr">
         <is>
           <t>CN</t>
         </is>
       </c>
-      <c r="H7" s="1" t="inlineStr"/>
+      <c r="H7" s="1" t="inlineStr">
+        <is>
+          <t>FG10081</t>
+        </is>
+      </c>
       <c r="I7" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
-          <t>12/24納期　本社出荷</t>
-        </is>
-      </c>
-      <c r="K7" s="1" t="inlineStr"/>
+          <t>本社出荷</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
       <c r="L7" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="18" customHeight="1">
+      <c r="A8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>20210308</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>築港　名古屋</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>ＳＵ－１００ Ｂ液 (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>21022301H</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="inlineStr">
+        <is>
+          <t>FG10081</t>
+        </is>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1" t="inlineStr">
+        <is>
+          <t>本社出荷</t>
+        </is>
+      </c>
+      <c r="K8" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L8" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="18" customHeight="1">
+      <c r="A9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>20210308</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>築港　名古屋</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>ＳＵ－１００ Ａ液 (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="inlineStr">
+        <is>
+          <t>21022502H</t>
+        </is>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H9" s="1" t="inlineStr">
+        <is>
+          <t>FG10081</t>
+        </is>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1" t="inlineStr">
+        <is>
+          <t>本社出荷</t>
+        </is>
+      </c>
+      <c r="K9" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L9" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Program/出荷実績照会_本社.xlsx
+++ b/Program/出荷実績照会_本社.xlsx
@@ -7,8 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常_輸出N" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常_輸出Y" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="トール_通常_輸出N" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常_輸出N" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
@@ -494,7 +494,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,7 +505,7 @@
     <col width="2.42" customWidth="1" min="1" max="1"/>
     <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
     <col width="11.77" customWidth="1" min="3" max="3"/>
-    <col width="22.88" customWidth="1" min="4" max="4"/>
+    <col width="26.18" customWidth="1" min="4" max="4"/>
     <col width="10.45" customWidth="1" min="5" max="5"/>
     <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
     <col width="4.29" customWidth="1" min="7" max="7"/>
@@ -533,7 +533,7 @@
     <row r="3" ht="18" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>運送業者：U0009 新潟運輸   配送区分：1 通常  輸出：N</t>
+          <t>運送業者：U0001 トール   配送区分：1 通常  輸出：N</t>
         </is>
       </c>
     </row>
@@ -605,35 +605,39 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210308</t>
+          <t>20210310</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>日本バンパー</t>
+          <t>鵜飼塗料商事</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>エコーＣ 剥離剤 (18㍑）</t>
+          <t>ＲＴ－３５Ｍ トップ (16KG)</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>20101201H</t>
+          <t>21011902H</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
           <t>CN</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr"/>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>NO.3</t>
+        </is>
+      </c>
       <c r="I5" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
@@ -651,35 +655,39 @@
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>20210308</t>
+          <t>20210310</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>日本バンパー</t>
+          <t>鵜飼塗料商事</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>エコーＣ 剥離剤 (18㍑）</t>
+          <t>ＢＰ－５０アンダー (15KG)</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>21011807H</t>
+          <t>21012951T</t>
         </is>
       </c>
       <c r="F6" s="1" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
           <t>CN</t>
         </is>
       </c>
-      <c r="H6" s="1" t="inlineStr"/>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>NO.3</t>
+        </is>
+      </c>
       <c r="I6" s="1" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
@@ -688,6 +696,56 @@
       </c>
       <c r="K6" s="1" t="inlineStr"/>
       <c r="L6" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="18" customHeight="1">
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>20210310</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>鵜飼塗料商事</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>ＢＰ－５０アンダー (15KG)</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>21030251T</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr">
+        <is>
+          <t>NO.3</t>
+        </is>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>本社出荷</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr"/>
+      <c r="L7" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,7 +762,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -714,12 +772,12 @@
   <cols>
     <col width="2.42" customWidth="1" min="1" max="1"/>
     <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
-    <col width="11.77" customWidth="1" min="3" max="3"/>
-    <col width="31.35" customWidth="1" min="4" max="4"/>
+    <col width="8.030000000000001" customWidth="1" min="3" max="3"/>
+    <col width="28.05" customWidth="1" min="4" max="4"/>
     <col width="10.45" customWidth="1" min="5" max="5"/>
     <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
     <col width="4.29" customWidth="1" min="7" max="7"/>
-    <col width="8.25" customWidth="1" min="8" max="8"/>
+    <col width="7.590000000000001" customWidth="1" min="8" max="8"/>
     <col width="4.29" customWidth="1" min="9" max="9"/>
     <col width="8.030000000000001" customWidth="1" min="10" max="10"/>
     <col width="1.65" customWidth="1" min="11" max="11"/>
@@ -743,7 +801,7 @@
     <row r="3" ht="18" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>運送業者：U0009 新潟運輸   配送区分：1 通常  輸出：Y</t>
+          <t>運送業者：U0009 新潟運輸   配送区分：1 通常  輸出：N</t>
         </is>
       </c>
     </row>
@@ -815,22 +873,22 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210308</t>
+          <t>20210310</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>築港　名古屋</t>
+          <t>影山</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>ＳＵ－９３０ Ａ液 (UN/15KG)</t>
+          <t>５１００Ｍ クリヤー (16KG)</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>21021505H</t>
+          <t>21011901H</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
@@ -841,11 +899,7 @@
           <t>CN</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>FG10081</t>
-        </is>
-      </c>
+      <c r="H5" s="1" t="inlineStr"/>
       <c r="I5" s="1" t="n">
         <v>2</v>
       </c>
@@ -854,13 +908,9 @@
           <t>本社出荷</t>
         </is>
       </c>
-      <c r="K5" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
+      <c r="K5" s="1" t="inlineStr"/>
       <c r="L5" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1">
@@ -869,22 +919,22 @@
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>20210308</t>
+          <t>20210310</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>築港　名古屋</t>
+          <t>三栄産業</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>ＳＵ－９３０ Ｂ液 (UN/15KG)</t>
+          <t>ＵＶ－２３ 添加剤 (900G)</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>21021507H</t>
+          <t>21012902H</t>
         </is>
       </c>
       <c r="F6" s="1" t="n">
@@ -895,11 +945,7 @@
           <t>CN</t>
         </is>
       </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>FG10081</t>
-        </is>
-      </c>
+      <c r="H6" s="1" t="inlineStr"/>
       <c r="I6" s="1" t="n">
         <v>2</v>
       </c>
@@ -908,11 +954,7 @@
           <t>本社出荷</t>
         </is>
       </c>
-      <c r="K6" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
+      <c r="K6" s="1" t="inlineStr"/>
       <c r="L6" s="1" t="n">
         <v>1</v>
       </c>
@@ -923,22 +965,22 @@
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>20210308</t>
+          <t>20210310</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>築港　名古屋</t>
+          <t>三栄産業</t>
         </is>
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>ＳＵ－９３０ シンナー (UN/14KG)</t>
+          <t>ＵＶ－２３Ｒ アンダー (15KG)</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>21022303H</t>
+          <t>21012901H</t>
         </is>
       </c>
       <c r="F7" s="1" t="n">
@@ -949,11 +991,7 @@
           <t>CN</t>
         </is>
       </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>FG10081</t>
-        </is>
-      </c>
+      <c r="H7" s="1" t="inlineStr"/>
       <c r="I7" s="1" t="n">
         <v>2</v>
       </c>
@@ -962,120 +1000,8 @@
           <t>本社出荷</t>
         </is>
       </c>
-      <c r="K7" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
+      <c r="K7" s="1" t="inlineStr"/>
       <c r="L7" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>20210308</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>築港　名古屋</t>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
-        <is>
-          <t>ＳＵ－１００ Ｂ液 (UN/15KG)</t>
-        </is>
-      </c>
-      <c r="E8" s="1" t="inlineStr">
-        <is>
-          <t>21022301H</t>
-        </is>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H8" s="1" t="inlineStr">
-        <is>
-          <t>FG10081</t>
-        </is>
-      </c>
-      <c r="I8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1" t="inlineStr">
-        <is>
-          <t>本社出荷</t>
-        </is>
-      </c>
-      <c r="K8" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L8" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" ht="18" customHeight="1">
-      <c r="A9" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>20210308</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>築港　名古屋</t>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
-        <is>
-          <t>ＳＵ－１００ Ａ液 (UN/15KG)</t>
-        </is>
-      </c>
-      <c r="E9" s="1" t="inlineStr">
-        <is>
-          <t>21022502H</t>
-        </is>
-      </c>
-      <c r="F9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H9" s="1" t="inlineStr">
-        <is>
-          <t>FG10081</t>
-        </is>
-      </c>
-      <c r="I9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" s="1" t="inlineStr">
-        <is>
-          <t>本社出荷</t>
-        </is>
-      </c>
-      <c r="K9" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L9" s="1" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Program/出荷実績照会_本社.xlsx
+++ b/Program/出荷実績照会_本社.xlsx
@@ -7,9 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="トール_通常_輸出N" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常_輸出N" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常_輸出N" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -175,36 +174,6 @@
 </wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>7</col>
-      <colOff>0</colOff>
-      <row>0</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2400300" cy="595312"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -494,7 +463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,8 +473,8 @@
   <cols>
     <col width="2.42" customWidth="1" min="1" max="1"/>
     <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
-    <col width="11.77" customWidth="1" min="3" max="3"/>
-    <col width="26.18" customWidth="1" min="4" max="4"/>
+    <col width="8.030000000000001" customWidth="1" min="3" max="3"/>
+    <col width="29.15" customWidth="1" min="4" max="4"/>
     <col width="10.45" customWidth="1" min="5" max="5"/>
     <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
     <col width="4.29" customWidth="1" min="7" max="7"/>
@@ -533,7 +502,7 @@
     <row r="3" ht="18" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>運送業者：U0001 トール   配送区分：1 通常  輸出：N</t>
+          <t>運送業者：U0009 新潟運輸   配送区分：1 通常  輸出：N</t>
         </is>
       </c>
     </row>
@@ -605,39 +574,35 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210310</t>
+          <t>20210312</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>鵜飼塗料商事</t>
+          <t>相模塗装</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>ＲＴ－３５Ｍ トップ (16KG)</t>
+          <t>ＳＴＭ-３０-Ｔ２Ｌ塗料 (15KG)</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>21011902H</t>
+          <t>20121706H</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
           <t>CN</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>NO.3</t>
-        </is>
-      </c>
+      <c r="H5" s="1" t="inlineStr"/>
       <c r="I5" s="1" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
@@ -646,106 +611,6 @@
       </c>
       <c r="K5" s="1" t="inlineStr"/>
       <c r="L5" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>20210310</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>鵜飼塗料商事</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>ＢＰ－５０アンダー (15KG)</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>21012951T</t>
-        </is>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>NO.3</t>
-        </is>
-      </c>
-      <c r="I6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t>本社出荷</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr"/>
-      <c r="L6" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>20210310</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>鵜飼塗料商事</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t>ＢＰ－５０アンダー (15KG)</t>
-        </is>
-      </c>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
-          <t>21030251T</t>
-        </is>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G7" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>NO.3</t>
-        </is>
-      </c>
-      <c r="I7" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="J7" s="1" t="inlineStr">
-        <is>
-          <t>本社出荷</t>
-        </is>
-      </c>
-      <c r="K7" s="1" t="inlineStr"/>
-      <c r="L7" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -757,262 +622,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:L7"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="2.42" customWidth="1" min="1" max="1"/>
-    <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
-    <col width="8.030000000000001" customWidth="1" min="3" max="3"/>
-    <col width="28.05" customWidth="1" min="4" max="4"/>
-    <col width="10.45" customWidth="1" min="5" max="5"/>
-    <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
-    <col width="4.29" customWidth="1" min="7" max="7"/>
-    <col width="7.590000000000001" customWidth="1" min="8" max="8"/>
-    <col width="4.29" customWidth="1" min="9" max="9"/>
-    <col width="8.030000000000001" customWidth="1" min="10" max="10"/>
-    <col width="1.65" customWidth="1" min="11" max="11"/>
-    <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="23" customHeight="1">
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>出荷実績照会</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="18" customHeight="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>出荷工場：@0001 本社工場</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="18" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>運送業者：U0009 新潟運輸   配送区分：1 通常  輸出：N</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>行</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>売上日</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>納入先名</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>品名</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>ﾛｯﾄNo.</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>売上数量</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>単位</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>注文No.</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t>缶数</t>
-        </is>
-      </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>備考</t>
-        </is>
-      </c>
-      <c r="K4" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L4" s="1" t="inlineStr">
-        <is>
-          <t>add</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>20210310</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>影山</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>５１００Ｍ クリヤー (16KG)</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>21011901H</t>
-        </is>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr"/>
-      <c r="I5" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J5" s="1" t="inlineStr">
-        <is>
-          <t>本社出荷</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr"/>
-      <c r="L5" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>20210310</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>三栄産業</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>ＵＶ－２３ 添加剤 (900G)</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>21012902H</t>
-        </is>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="inlineStr"/>
-      <c r="I6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t>本社出荷</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr"/>
-      <c r="L6" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>20210310</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>三栄産業</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t>ＵＶ－２３Ｒ アンダー (15KG)</t>
-        </is>
-      </c>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
-          <t>21012901H</t>
-        </is>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G7" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H7" s="1" t="inlineStr"/>
-      <c r="I7" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J7" s="1" t="inlineStr">
-        <is>
-          <t>本社出荷</t>
-        </is>
-      </c>
-      <c r="K7" s="1" t="inlineStr"/>
-      <c r="L7" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/Program/出荷実績照会_本社.xlsx
+++ b/Program/出荷実績照会_本社.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常_輸出N" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常_輸出Y" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NoData_通常_輸出N" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常_輸出N" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -145,6 +147,66 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2400300" cy="595312"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2400300" cy="595312"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
@@ -473,8 +535,344 @@
   <cols>
     <col width="2.42" customWidth="1" min="1" max="1"/>
     <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
-    <col width="8.030000000000001" customWidth="1" min="3" max="3"/>
-    <col width="29.15" customWidth="1" min="4" max="4"/>
+    <col width="17.38" customWidth="1" min="3" max="3"/>
+    <col width="32.12" customWidth="1" min="4" max="4"/>
+    <col width="10.45" customWidth="1" min="5" max="5"/>
+    <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
+    <col width="4.29" customWidth="1" min="7" max="7"/>
+    <col width="8.25" customWidth="1" min="8" max="8"/>
+    <col width="4.29" customWidth="1" min="9" max="9"/>
+    <col width="8.030000000000001" customWidth="1" min="10" max="10"/>
+    <col width="1.65" customWidth="1" min="11" max="11"/>
+    <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="23" customHeight="1">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>出荷実績照会</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>出荷工場：@0001 本社工場</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>運送業者：U0009 新潟運輸   配送区分：1 通常  輸出：Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>行</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>売上日</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>納入先名</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>品名</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>ﾛｯﾄNo.</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>売上数量</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>単位</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>注文No.</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>缶数</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="18" customHeight="1">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>20210305</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>安達包運　名港西２</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>Ｎ－４０４Ｋ２アンダー (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>21022401H</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>TTW3441</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>本社出荷</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="2.42" customWidth="1" min="1" max="1"/>
+    <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
+    <col width="9.9" customWidth="1" min="3" max="3"/>
+    <col width="17.27" customWidth="1" min="4" max="4"/>
+    <col width="7.15" customWidth="1" min="5" max="5"/>
+    <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
+    <col width="4.29" customWidth="1" min="7" max="7"/>
+    <col width="13.2" customWidth="1" min="8" max="8"/>
+    <col width="4.29" customWidth="1" min="9" max="9"/>
+    <col width="7.15" customWidth="1" min="10" max="10"/>
+    <col width="1.65" customWidth="1" min="11" max="11"/>
+    <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="23" customHeight="1">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>出荷実績照会</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>出荷工場：@0001 本社工場</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>運送業者：NoData NoData   配送区分：1 通常  輸出：N</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>行</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>売上日</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>納入先名</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>品名</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>ﾛｯﾄNo.</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>売上数量</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>単位</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>注文No.</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>缶数</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="18" customHeight="1">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>20210305</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>アサヒ精工</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>運送費(3/5出荷分)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr"/>
+      <c r="F5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>ｱｻﾋ精工㈱様分</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr"/>
+      <c r="L5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="2.42" customWidth="1" min="1" max="1"/>
+    <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
+    <col width="9.9" customWidth="1" min="3" max="3"/>
+    <col width="29.92" customWidth="1" min="4" max="4"/>
     <col width="10.45" customWidth="1" min="5" max="5"/>
     <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
     <col width="4.29" customWidth="1" min="7" max="7"/>
@@ -574,26 +972,26 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210312</t>
+          <t>20210305</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>相模塗装</t>
+          <t>美野里真空</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>ＳＴＭ-３０-Ｔ２Ｌ塗料 (15KG)</t>
+          <t>ＴＬ－４００ リターダー (15KG)</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>20121706H</t>
+          <t>21030307H</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
@@ -602,7 +1000,7 @@
       </c>
       <c r="H5" s="1" t="inlineStr"/>
       <c r="I5" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
@@ -621,7 +1019,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/Program/出荷実績照会_本社.xlsx
+++ b/Program/出荷実績照会_本社.xlsx
@@ -7,10 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常_輸出Y" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NoData_通常_輸出N" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常_輸出N" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常_輸出N" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -176,66 +174,6 @@
 </wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>7</col>
-      <colOff>0</colOff>
-      <row>0</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2400300" cy="595312"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>7</col>
-      <colOff>0</colOff>
-      <row>0</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2400300" cy="595312"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -535,344 +473,8 @@
   <cols>
     <col width="2.42" customWidth="1" min="1" max="1"/>
     <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
-    <col width="17.38" customWidth="1" min="3" max="3"/>
-    <col width="32.12" customWidth="1" min="4" max="4"/>
-    <col width="10.45" customWidth="1" min="5" max="5"/>
-    <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
-    <col width="4.29" customWidth="1" min="7" max="7"/>
-    <col width="8.25" customWidth="1" min="8" max="8"/>
-    <col width="4.29" customWidth="1" min="9" max="9"/>
-    <col width="8.030000000000001" customWidth="1" min="10" max="10"/>
-    <col width="1.65" customWidth="1" min="11" max="11"/>
-    <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="23" customHeight="1">
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>出荷実績照会</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="18" customHeight="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>出荷工場：@0001 本社工場</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="18" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>運送業者：U0009 新潟運輸   配送区分：1 通常  輸出：Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>行</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>売上日</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>納入先名</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>品名</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>ﾛｯﾄNo.</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>売上数量</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>単位</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>注文No.</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t>缶数</t>
-        </is>
-      </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>備考</t>
-        </is>
-      </c>
-      <c r="K4" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L4" s="1" t="inlineStr">
-        <is>
-          <t>add</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>20210305</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>安達包運　名港西２</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>Ｎ－４０４Ｋ２アンダー (UN/15KG)</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>21022401H</t>
-        </is>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>TTW3441</t>
-        </is>
-      </c>
-      <c r="I5" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="J5" s="1" t="inlineStr">
-        <is>
-          <t>本社出荷</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L5" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:L5"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="2.42" customWidth="1" min="1" max="1"/>
-    <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
-    <col width="9.9" customWidth="1" min="3" max="3"/>
-    <col width="17.27" customWidth="1" min="4" max="4"/>
-    <col width="7.15" customWidth="1" min="5" max="5"/>
-    <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
-    <col width="4.29" customWidth="1" min="7" max="7"/>
-    <col width="13.2" customWidth="1" min="8" max="8"/>
-    <col width="4.29" customWidth="1" min="9" max="9"/>
-    <col width="7.15" customWidth="1" min="10" max="10"/>
-    <col width="1.65" customWidth="1" min="11" max="11"/>
-    <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="23" customHeight="1">
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>出荷実績照会</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="18" customHeight="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>出荷工場：@0001 本社工場</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="18" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>運送業者：NoData NoData   配送区分：1 通常  輸出：N</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>行</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>売上日</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>納入先名</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>品名</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>ﾛｯﾄNo.</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>売上数量</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>単位</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>注文No.</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t>缶数</t>
-        </is>
-      </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>備考</t>
-        </is>
-      </c>
-      <c r="K4" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L4" s="1" t="inlineStr">
-        <is>
-          <t>add</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>20210305</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>アサヒ精工</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>運送費(3/5出荷分)</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr"/>
-      <c r="F5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>PC</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>ｱｻﾋ精工㈱様分</t>
-        </is>
-      </c>
-      <c r="I5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr"/>
-      <c r="L5" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:L5"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="2.42" customWidth="1" min="1" max="1"/>
-    <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
-    <col width="9.9" customWidth="1" min="3" max="3"/>
-    <col width="29.92" customWidth="1" min="4" max="4"/>
+    <col width="8.030000000000001" customWidth="1" min="3" max="3"/>
+    <col width="29.15" customWidth="1" min="4" max="4"/>
     <col width="10.45" customWidth="1" min="5" max="5"/>
     <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
     <col width="4.29" customWidth="1" min="7" max="7"/>
@@ -972,26 +574,26 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210305</t>
+          <t>20210312</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>美野里真空</t>
+          <t>相模塗装</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>ＴＬ－４００ リターダー (15KG)</t>
+          <t>ＳＴＭ-３０-Ｔ２Ｌ塗料 (15KG)</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>21030307H</t>
+          <t>20121706H</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
@@ -1000,7 +602,7 @@
       </c>
       <c r="H5" s="1" t="inlineStr"/>
       <c r="I5" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
@@ -1019,7 +621,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/Program/出荷実績照会_本社.xlsx
+++ b/Program/出荷実績照会_本社.xlsx
@@ -8,7 +8,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常_輸出N" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常_輸出Y" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -174,6 +175,36 @@
 </wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2400300" cy="595312"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -463,7 +494,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,12 +504,218 @@
   <cols>
     <col width="2.42" customWidth="1" min="1" max="1"/>
     <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
-    <col width="8.030000000000001" customWidth="1" min="3" max="3"/>
+    <col width="11.77" customWidth="1" min="3" max="3"/>
+    <col width="19.03" customWidth="1" min="4" max="4"/>
+    <col width="10.45" customWidth="1" min="5" max="5"/>
+    <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
+    <col width="4.29" customWidth="1" min="7" max="7"/>
+    <col width="7.590000000000001" customWidth="1" min="8" max="8"/>
+    <col width="4.29" customWidth="1" min="9" max="9"/>
+    <col width="17.38" customWidth="1" min="10" max="10"/>
+    <col width="1.65" customWidth="1" min="11" max="11"/>
+    <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="23" customHeight="1">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>出荷実績照会</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>出荷工場：@0001 本社工場</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>運送業者：U0009 新潟運輸   配送区分：1 通常  輸出：N</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>行</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>売上日</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>納入先名</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>品名</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>ﾛｯﾄNo.</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>売上数量</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>単位</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>注文No.</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>缶数</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="18" customHeight="1">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>20210316</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>ヘイワテクノ</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>BP-50添加剤（500G)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr"/>
+      <c r="F5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr"/>
+      <c r="I5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>本社出荷　梅山様宛</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr"/>
+      <c r="L5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>20210316</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>サナック</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>ＩＫ－５０（15KG）</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>21021504H</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr"/>
+      <c r="I6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>本社出荷</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr"/>
+      <c r="L6" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L6"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="2.42" customWidth="1" min="1" max="1"/>
+    <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
+    <col width="17.38" customWidth="1" min="3" max="3"/>
     <col width="29.15" customWidth="1" min="4" max="4"/>
     <col width="10.45" customWidth="1" min="5" max="5"/>
     <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
     <col width="4.29" customWidth="1" min="7" max="7"/>
-    <col width="7.590000000000001" customWidth="1" min="8" max="8"/>
+    <col width="8.25" customWidth="1" min="8" max="8"/>
     <col width="4.29" customWidth="1" min="9" max="9"/>
     <col width="8.030000000000001" customWidth="1" min="10" max="10"/>
     <col width="1.65" customWidth="1" min="11" max="11"/>
@@ -502,7 +739,7 @@
     <row r="3" ht="18" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>運送業者：U0009 新潟運輸   配送区分：1 通常  輸出：N</t>
+          <t>運送業者：U0009 新潟運輸   配送区分：1 通常  輸出：Y</t>
         </is>
       </c>
     </row>
@@ -574,43 +811,105 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210312</t>
+          <t>20210316</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>相模塗装</t>
+          <t>安達包運　名港西２</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>ＳＴＭ-３０-Ｔ２Ｌ塗料 (15KG)</t>
+          <t>ＳＴＭ－３０－Ｔ１　(UN/15KG)</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>20121706H</t>
+          <t>21030401H</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>PHS0721</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>本社出荷</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G5" s="1" t="inlineStr">
+    </row>
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>20210316</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>安達包運　名港西２</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>ＳＴＭ－４０－Ｔ１　(UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>21030301H</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
         <is>
           <t>CN</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr"/>
-      <c r="I5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1" t="inlineStr">
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>PHS0721</t>
+        </is>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
         <is>
           <t>本社出荷</t>
         </is>
       </c>
-      <c r="K5" s="1" t="inlineStr"/>
-      <c r="L5" s="1" t="n">
+      <c r="K6" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L6" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -621,7 +920,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/Program/出荷実績照会_本社.xlsx
+++ b/Program/出荷実績照会_本社.xlsx
@@ -8,8 +8,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常_輸出N" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常_輸出Y" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -175,36 +174,6 @@
 </wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>7</col>
-      <colOff>0</colOff>
-      <row>0</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2400300" cy="595312"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -494,7 +463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,14 +473,14 @@
   <cols>
     <col width="2.42" customWidth="1" min="1" max="1"/>
     <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
-    <col width="11.77" customWidth="1" min="3" max="3"/>
-    <col width="19.03" customWidth="1" min="4" max="4"/>
+    <col width="9.9" customWidth="1" min="3" max="3"/>
+    <col width="28.05" customWidth="1" min="4" max="4"/>
     <col width="10.45" customWidth="1" min="5" max="5"/>
     <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
     <col width="4.29" customWidth="1" min="7" max="7"/>
     <col width="7.590000000000001" customWidth="1" min="8" max="8"/>
     <col width="4.29" customWidth="1" min="9" max="9"/>
-    <col width="17.38" customWidth="1" min="10" max="10"/>
+    <col width="8.030000000000001" customWidth="1" min="10" max="10"/>
     <col width="1.65" customWidth="1" min="11" max="11"/>
     <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
   </cols>
@@ -605,17 +574,17 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210316</t>
+          <t>20210319</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>ヘイワテクノ</t>
+          <t>トウプラス</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>BP-50添加剤（500G)</t>
+          <t>UVT-06WP (4KG)</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr"/>
@@ -633,12 +602,12 @@
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>本社出荷　梅山様宛</t>
+          <t>noData</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr"/>
       <c r="L5" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1">
@@ -647,22 +616,22 @@
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>20210316</t>
+          <t>20210319</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>サナック</t>
+          <t>三栄産業</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>ＩＫ－５０（15KG）</t>
+          <t>ＵＶ－２３ 添加剤 (900G)</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>21021504H</t>
+          <t>21012902H</t>
         </is>
       </c>
       <c r="F6" s="1" t="n">
@@ -684,6 +653,52 @@
       </c>
       <c r="K6" s="1" t="inlineStr"/>
       <c r="L6" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="18" customHeight="1">
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>20210319</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>三栄産業</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>ＵＶ－２３Ｒ アンダー (15KG)</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>21012901H</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr"/>
+      <c r="I7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>本社出荷</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr"/>
+      <c r="L7" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -695,232 +710,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:L6"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="2.42" customWidth="1" min="1" max="1"/>
-    <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
-    <col width="17.38" customWidth="1" min="3" max="3"/>
-    <col width="29.15" customWidth="1" min="4" max="4"/>
-    <col width="10.45" customWidth="1" min="5" max="5"/>
-    <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
-    <col width="4.29" customWidth="1" min="7" max="7"/>
-    <col width="8.25" customWidth="1" min="8" max="8"/>
-    <col width="4.29" customWidth="1" min="9" max="9"/>
-    <col width="8.030000000000001" customWidth="1" min="10" max="10"/>
-    <col width="1.65" customWidth="1" min="11" max="11"/>
-    <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="23" customHeight="1">
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>出荷実績照会</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="18" customHeight="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>出荷工場：@0001 本社工場</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="18" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>運送業者：U0009 新潟運輸   配送区分：1 通常  輸出：Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>行</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>売上日</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>納入先名</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>品名</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>ﾛｯﾄNo.</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>売上数量</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>単位</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>注文No.</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t>缶数</t>
-        </is>
-      </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>備考</t>
-        </is>
-      </c>
-      <c r="K4" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L4" s="1" t="inlineStr">
-        <is>
-          <t>add</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>20210316</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>安達包運　名港西２</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>ＳＴＭ－３０－Ｔ１　(UN/15KG)</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>21030401H</t>
-        </is>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>PHS0721</t>
-        </is>
-      </c>
-      <c r="I5" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="J5" s="1" t="inlineStr">
-        <is>
-          <t>本社出荷</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L5" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>20210316</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>安達包運　名港西２</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>ＳＴＭ－４０－Ｔ１　(UN/15KG)</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>21030301H</t>
-        </is>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>PHS0721</t>
-        </is>
-      </c>
-      <c r="I6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t>本社出荷</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L6" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/Program/出荷実績照会_本社.xlsx
+++ b/Program/出荷実績照会_本社.xlsx
@@ -8,7 +8,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常_輸出N" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常_輸出Y" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -145,6 +146,36 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2400300" cy="595312"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
@@ -463,7 +494,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,8 +504,8 @@
   <cols>
     <col width="2.42" customWidth="1" min="1" max="1"/>
     <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
-    <col width="9.9" customWidth="1" min="3" max="3"/>
-    <col width="28.05" customWidth="1" min="4" max="4"/>
+    <col width="11.77" customWidth="1" min="3" max="3"/>
+    <col width="31.79" customWidth="1" min="4" max="4"/>
     <col width="10.45" customWidth="1" min="5" max="5"/>
     <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
     <col width="4.29" customWidth="1" min="7" max="7"/>
@@ -574,22 +605,26 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210319</t>
+          <t>20210322</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>トウプラス</t>
+          <t>トータス技実</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>UVT-06WP (4KG)</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr"/>
+          <t>ＳＴＨ－５０１Ｍ アンダー (15KG)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>21031503H</t>
+        </is>
+      </c>
       <c r="F5" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
@@ -598,16 +633,16 @@
       </c>
       <c r="H5" s="1" t="inlineStr"/>
       <c r="I5" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>noData</t>
+          <t>本社出荷</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr"/>
       <c r="L5" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1">
@@ -616,26 +651,26 @@
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>20210319</t>
+          <t>20210322</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>三栄産業</t>
+          <t>トータス技実</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>ＵＶ－２３ 添加剤 (900G)</t>
+          <t>ＲＴ－３５Ｍ トップ (16KG)</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>21012902H</t>
+          <t>21011902H</t>
         </is>
       </c>
       <c r="F6" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
@@ -644,7 +679,7 @@
       </c>
       <c r="H6" s="1" t="inlineStr"/>
       <c r="I6" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
@@ -662,26 +697,26 @@
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>20210319</t>
+          <t>20210322</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>三栄産業</t>
+          <t>トータス技実</t>
         </is>
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>ＵＶ－２３Ｒ アンダー (15KG)</t>
+          <t>ＲＴ－３５Ｍ トップ (16KG)</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>21012901H</t>
+          <t>21030801H</t>
         </is>
       </c>
       <c r="F7" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" s="1" t="inlineStr">
         <is>
@@ -690,7 +725,7 @@
       </c>
       <c r="H7" s="1" t="inlineStr"/>
       <c r="I7" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
@@ -699,6 +734,52 @@
       </c>
       <c r="K7" s="1" t="inlineStr"/>
       <c r="L7" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="18" customHeight="1">
+      <c r="A8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>20210322</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>トータス技実</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>ＳＴＨ－３５０Ｍアンダー (15KG)</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>21010801H</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="inlineStr"/>
+      <c r="I8" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J8" s="1" t="inlineStr">
+        <is>
+          <t>本社出荷</t>
+        </is>
+      </c>
+      <c r="K8" s="1" t="inlineStr"/>
+      <c r="L8" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -710,6 +791,394 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="2.42" customWidth="1" min="1" max="1"/>
+    <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
+    <col width="13.64" customWidth="1" min="3" max="3"/>
+    <col width="40.26" customWidth="1" min="4" max="4"/>
+    <col width="10.45" customWidth="1" min="5" max="5"/>
+    <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
+    <col width="4.29" customWidth="1" min="7" max="7"/>
+    <col width="8.25" customWidth="1" min="8" max="8"/>
+    <col width="4.29" customWidth="1" min="9" max="9"/>
+    <col width="8.030000000000001" customWidth="1" min="10" max="10"/>
+    <col width="1.65" customWidth="1" min="11" max="11"/>
+    <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="23" customHeight="1">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>出荷実績照会</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>出荷工場：@0001 本社工場</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>運送業者：U0009 新潟運輸   配送区分：1 通常  輸出：Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>行</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>売上日</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>納入先名</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>品名</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>ﾛｯﾄNo.</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>売上数量</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>単位</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>注文No.</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>缶数</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="18" customHeight="1">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>20210322</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>築港横浜　第２</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>Ｕ－３３０シンナー (UN/14KG)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>21030354T</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>FG10143</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>本社出荷</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>20210322</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>築港横浜　第２</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>ＳＲ－００１ Ａ (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>21031203H</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>FG10143</t>
+        </is>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>本社出荷</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L6" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="18" customHeight="1">
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>20210322</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>築港横浜　第２</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>ＳＴＭ－３０－Ｔ２－ＶＣ Ｃlear (UN/15KG</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>21031202H</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr">
+        <is>
+          <t>FG10143</t>
+        </is>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>本社出荷</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L7" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="18" customHeight="1">
+      <c r="A8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>20210322</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>築港横浜　第２</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>ＳＲ－００１ Ｂ (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>21030804H</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="inlineStr">
+        <is>
+          <t>FG10143</t>
+        </is>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1" t="inlineStr">
+        <is>
+          <t>本社出荷</t>
+        </is>
+      </c>
+      <c r="K8" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L8" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="18" customHeight="1">
+      <c r="A9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>20210322</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>築港横浜　第２</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>ＳＴＭ－３０－Ｔ１－ＣＨｼﾝﾅｰ (UN/14KG)</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="inlineStr">
+        <is>
+          <t>21031051T</t>
+        </is>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H9" s="1" t="inlineStr">
+        <is>
+          <t>FG10143</t>
+        </is>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1" t="inlineStr">
+        <is>
+          <t>本社出荷</t>
+        </is>
+      </c>
+      <c r="K9" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L9" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/Program/出荷実績照会_本社.xlsx
+++ b/Program/出荷実績照会_本社.xlsx
@@ -8,8 +8,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常_輸出N" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常_輸出Y" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="トール_曜日違い_輸出N" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常_輸出Y" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -176,6 +177,36 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2400300" cy="595312"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
@@ -494,7 +525,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,12 +535,12 @@
   <cols>
     <col width="2.42" customWidth="1" min="1" max="1"/>
     <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
-    <col width="11.77" customWidth="1" min="3" max="3"/>
-    <col width="31.79" customWidth="1" min="4" max="4"/>
+    <col width="13.64" customWidth="1" min="3" max="3"/>
+    <col width="20.57" customWidth="1" min="4" max="4"/>
     <col width="10.45" customWidth="1" min="5" max="5"/>
     <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
     <col width="4.29" customWidth="1" min="7" max="7"/>
-    <col width="7.590000000000001" customWidth="1" min="8" max="8"/>
+    <col width="8.25" customWidth="1" min="8" max="8"/>
     <col width="4.29" customWidth="1" min="9" max="9"/>
     <col width="8.030000000000001" customWidth="1" min="10" max="10"/>
     <col width="1.65" customWidth="1" min="11" max="11"/>
@@ -605,35 +636,39 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210322</t>
+          <t>20210401</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>トータス技実</t>
+          <t>タキ倉庫　榛南</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>ＳＴＨ－５０１Ｍ アンダー (15KG)</t>
+          <t>ＰＲ－Ａ(改） (15KG)</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>21031503H</t>
+          <t>21032206H</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
           <t>CN</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr"/>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>T544A27</t>
+        </is>
+      </c>
       <c r="I5" s="1" t="n">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
@@ -642,144 +677,6 @@
       </c>
       <c r="K5" s="1" t="inlineStr"/>
       <c r="L5" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>20210322</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>トータス技実</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>ＲＴ－３５Ｍ トップ (16KG)</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>21011902H</t>
-        </is>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="inlineStr"/>
-      <c r="I6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t>本社出荷</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr"/>
-      <c r="L6" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>20210322</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>トータス技実</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t>ＲＴ－３５Ｍ トップ (16KG)</t>
-        </is>
-      </c>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
-          <t>21030801H</t>
-        </is>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H7" s="1" t="inlineStr"/>
-      <c r="I7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1" t="inlineStr">
-        <is>
-          <t>本社出荷</t>
-        </is>
-      </c>
-      <c r="K7" s="1" t="inlineStr"/>
-      <c r="L7" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>20210322</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>トータス技実</t>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
-        <is>
-          <t>ＳＴＨ－３５０Ｍアンダー (15KG)</t>
-        </is>
-      </c>
-      <c r="E8" s="1" t="inlineStr">
-        <is>
-          <t>21010801H</t>
-        </is>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="G8" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H8" s="1" t="inlineStr"/>
-      <c r="I8" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="J8" s="1" t="inlineStr">
-        <is>
-          <t>本社出荷</t>
-        </is>
-      </c>
-      <c r="K8" s="1" t="inlineStr"/>
-      <c r="L8" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -796,7 +693,171 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="2.42" customWidth="1" min="1" max="1"/>
+    <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
+    <col width="9.9" customWidth="1" min="3" max="3"/>
+    <col width="20.24" customWidth="1" min="4" max="4"/>
+    <col width="10.45" customWidth="1" min="5" max="5"/>
+    <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
+    <col width="4.29" customWidth="1" min="7" max="7"/>
+    <col width="7.590000000000001" customWidth="1" min="8" max="8"/>
+    <col width="4.29" customWidth="1" min="9" max="9"/>
+    <col width="8.030000000000001" customWidth="1" min="10" max="10"/>
+    <col width="1.65" customWidth="1" min="11" max="11"/>
+    <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="23" customHeight="1">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>出荷実績照会</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>出荷工場：@0001 本社工場</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>運送業者：U0001 トール   配送区分：4 曜日違い  輸出：N</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>行</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>売上日</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>納入先名</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>品名</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>ﾛｯﾄNo.</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>売上数量</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>単位</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>注文No.</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>缶数</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="18" customHeight="1">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>20210401</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>白水ＤＨＣ</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>ＳＴＭ－１塗料 (1KG)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>21021701H</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr"/>
+      <c r="I5" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>本社出荷</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr"/>
+      <c r="L5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -807,8 +868,8 @@
     <col width="2.42" customWidth="1" min="1" max="1"/>
     <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
     <col width="13.64" customWidth="1" min="3" max="3"/>
-    <col width="40.26" customWidth="1" min="4" max="4"/>
-    <col width="10.45" customWidth="1" min="5" max="5"/>
+    <col width="36.95999999999999" customWidth="1" min="4" max="4"/>
+    <col width="12.65" customWidth="1" min="5" max="5"/>
     <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
     <col width="4.29" customWidth="1" min="7" max="7"/>
     <col width="8.25" customWidth="1" min="8" max="8"/>
@@ -907,7 +968,7 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210322</t>
+          <t>20210401</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
@@ -917,12 +978,12 @@
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>Ｕ－３３０シンナー (UN/14KG)</t>
+          <t>ＳＴＭ－３０－Ｔ２ クリヤー (UN/15KG)</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>21030354T</t>
+          <t>21030405H</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
@@ -935,7 +996,7 @@
       </c>
       <c r="H5" s="1" t="inlineStr">
         <is>
-          <t>FG10143</t>
+          <t>FG10111</t>
         </is>
       </c>
       <c r="I5" s="1" t="n">
@@ -961,7 +1022,7 @@
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>20210322</t>
+          <t>20210401</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
@@ -971,12 +1032,12 @@
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>ＳＲ－００１ Ａ (UN/15KG)</t>
+          <t>ＳＴＭ－１塗料 (UN/15KG)</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>21031203H</t>
+          <t>21021707H01</t>
         </is>
       </c>
       <c r="F6" s="1" t="n">
@@ -989,7 +1050,7 @@
       </c>
       <c r="H6" s="1" t="inlineStr">
         <is>
-          <t>FG10143</t>
+          <t>FG10111</t>
         </is>
       </c>
       <c r="I6" s="1" t="n">
@@ -1006,168 +1067,6 @@
         </is>
       </c>
       <c r="L6" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>20210322</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>築港横浜　第２</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t>ＳＴＭ－３０－Ｔ２－ＶＣ Ｃlear (UN/15KG</t>
-        </is>
-      </c>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
-          <t>21031202H</t>
-        </is>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>FG10143</t>
-        </is>
-      </c>
-      <c r="I7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1" t="inlineStr">
-        <is>
-          <t>本社出荷</t>
-        </is>
-      </c>
-      <c r="K7" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L7" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>20210322</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>築港横浜　第２</t>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
-        <is>
-          <t>ＳＲ－００１ Ｂ (UN/15KG)</t>
-        </is>
-      </c>
-      <c r="E8" s="1" t="inlineStr">
-        <is>
-          <t>21030804H</t>
-        </is>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H8" s="1" t="inlineStr">
-        <is>
-          <t>FG10143</t>
-        </is>
-      </c>
-      <c r="I8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1" t="inlineStr">
-        <is>
-          <t>本社出荷</t>
-        </is>
-      </c>
-      <c r="K8" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L8" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" ht="18" customHeight="1">
-      <c r="A9" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>20210322</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>築港横浜　第２</t>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
-        <is>
-          <t>ＳＴＭ－３０－Ｔ１－ＣＨｼﾝﾅｰ (UN/14KG)</t>
-        </is>
-      </c>
-      <c r="E9" s="1" t="inlineStr">
-        <is>
-          <t>21031051T</t>
-        </is>
-      </c>
-      <c r="F9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H9" s="1" t="inlineStr">
-        <is>
-          <t>FG10143</t>
-        </is>
-      </c>
-      <c r="I9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" s="1" t="inlineStr">
-        <is>
-          <t>本社出荷</t>
-        </is>
-      </c>
-      <c r="K9" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L9" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1178,7 +1077,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/Program/出荷実績照会_本社.xlsx
+++ b/Program/出荷実績照会_本社.xlsx
@@ -8,9 +8,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常_輸出N" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="トール_曜日違い_輸出N" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常_輸出Y" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -176,66 +174,6 @@
 </wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>7</col>
-      <colOff>0</colOff>
-      <row>0</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2400300" cy="595312"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>7</col>
-      <colOff>0</colOff>
-      <row>0</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2400300" cy="595312"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -535,12 +473,12 @@
   <cols>
     <col width="2.42" customWidth="1" min="1" max="1"/>
     <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
-    <col width="13.64" customWidth="1" min="3" max="3"/>
-    <col width="20.57" customWidth="1" min="4" max="4"/>
+    <col width="14.3" customWidth="1" min="3" max="3"/>
+    <col width="26.18" customWidth="1" min="4" max="4"/>
     <col width="10.45" customWidth="1" min="5" max="5"/>
     <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
     <col width="4.29" customWidth="1" min="7" max="7"/>
-    <col width="8.25" customWidth="1" min="8" max="8"/>
+    <col width="9.350000000000001" customWidth="1" min="8" max="8"/>
     <col width="4.29" customWidth="1" min="9" max="9"/>
     <col width="8.030000000000001" customWidth="1" min="10" max="10"/>
     <col width="1.65" customWidth="1" min="11" max="11"/>
@@ -636,39 +574,39 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210401</t>
+          <t>20210402</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>タキ倉庫　榛南</t>
+          <t>ｻｶｯｸ㈱本社工場</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>ＰＲ－Ａ(改） (15KG)</t>
+          <t>ＳＴＭ-４０-Ｔ２塗料 (1KG)</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>21032206H</t>
+          <t>21032406H</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>KG</t>
         </is>
       </c>
       <c r="H5" s="1" t="inlineStr">
         <is>
-          <t>T544A27</t>
+          <t>K7322908</t>
         </is>
       </c>
       <c r="I5" s="1" t="n">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
@@ -688,396 +626,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:L5"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="2.42" customWidth="1" min="1" max="1"/>
-    <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
-    <col width="9.9" customWidth="1" min="3" max="3"/>
-    <col width="20.24" customWidth="1" min="4" max="4"/>
-    <col width="10.45" customWidth="1" min="5" max="5"/>
-    <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
-    <col width="4.29" customWidth="1" min="7" max="7"/>
-    <col width="7.590000000000001" customWidth="1" min="8" max="8"/>
-    <col width="4.29" customWidth="1" min="9" max="9"/>
-    <col width="8.030000000000001" customWidth="1" min="10" max="10"/>
-    <col width="1.65" customWidth="1" min="11" max="11"/>
-    <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="23" customHeight="1">
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>出荷実績照会</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="18" customHeight="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>出荷工場：@0001 本社工場</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="18" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>運送業者：U0001 トール   配送区分：4 曜日違い  輸出：N</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>行</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>売上日</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>納入先名</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>品名</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>ﾛｯﾄNo.</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>売上数量</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>単位</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>注文No.</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t>缶数</t>
-        </is>
-      </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>備考</t>
-        </is>
-      </c>
-      <c r="K4" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L4" s="1" t="inlineStr">
-        <is>
-          <t>add</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>20210401</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>白水ＤＨＣ</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>ＳＴＭ－１塗料 (1KG)</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>21021701H</t>
-        </is>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>KG</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr"/>
-      <c r="I5" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="J5" s="1" t="inlineStr">
-        <is>
-          <t>本社出荷</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr"/>
-      <c r="L5" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:L6"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="2.42" customWidth="1" min="1" max="1"/>
-    <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
-    <col width="13.64" customWidth="1" min="3" max="3"/>
-    <col width="36.95999999999999" customWidth="1" min="4" max="4"/>
-    <col width="12.65" customWidth="1" min="5" max="5"/>
-    <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
-    <col width="4.29" customWidth="1" min="7" max="7"/>
-    <col width="8.25" customWidth="1" min="8" max="8"/>
-    <col width="4.29" customWidth="1" min="9" max="9"/>
-    <col width="8.030000000000001" customWidth="1" min="10" max="10"/>
-    <col width="1.65" customWidth="1" min="11" max="11"/>
-    <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="23" customHeight="1">
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>出荷実績照会</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="18" customHeight="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>出荷工場：@0001 本社工場</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="18" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>運送業者：U0009 新潟運輸   配送区分：1 通常  輸出：Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>行</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>売上日</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>納入先名</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>品名</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>ﾛｯﾄNo.</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>売上数量</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>単位</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>注文No.</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t>缶数</t>
-        </is>
-      </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>備考</t>
-        </is>
-      </c>
-      <c r="K4" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L4" s="1" t="inlineStr">
-        <is>
-          <t>add</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>20210401</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>築港横浜　第２</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>ＳＴＭ－３０－Ｔ２ クリヤー (UN/15KG)</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>21030405H</t>
-        </is>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>FG10111</t>
-        </is>
-      </c>
-      <c r="I5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1" t="inlineStr">
-        <is>
-          <t>本社出荷</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L5" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>20210401</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>築港横浜　第２</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>ＳＴＭ－１塗料 (UN/15KG)</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>21021707H01</t>
-        </is>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>FG10111</t>
-        </is>
-      </c>
-      <c r="I6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t>本社出荷</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L6" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/Program/出荷実績照会_本社.xlsx
+++ b/Program/出荷実績照会_本社.xlsx
@@ -473,14 +473,14 @@
   <cols>
     <col width="2.42" customWidth="1" min="1" max="1"/>
     <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
-    <col width="14.3" customWidth="1" min="3" max="3"/>
-    <col width="26.18" customWidth="1" min="4" max="4"/>
+    <col width="13.64" customWidth="1" min="3" max="3"/>
+    <col width="29.15" customWidth="1" min="4" max="4"/>
     <col width="10.45" customWidth="1" min="5" max="5"/>
     <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
     <col width="4.29" customWidth="1" min="7" max="7"/>
     <col width="9.350000000000001" customWidth="1" min="8" max="8"/>
     <col width="4.29" customWidth="1" min="9" max="9"/>
-    <col width="8.030000000000001" customWidth="1" min="10" max="10"/>
+    <col width="21.01" customWidth="1" min="10" max="10"/>
     <col width="1.65" customWidth="1" min="11" max="11"/>
     <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
   </cols>
@@ -574,43 +574,43 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210402</t>
+          <t>20210405</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>ｻｶｯｸ㈱本社工場</t>
+          <t>スタンレー秦野</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>ＳＴＭ-４０-Ｔ２塗料 (1KG)</t>
+          <t>ＳＴＭ-３０-Ｔ２Ｌ塗料 (15KG)</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>21032406H</t>
+          <t>20121706H</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
-          <t>KG</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="H5" s="1" t="inlineStr">
         <is>
-          <t>K7322908</t>
+          <t>J3775037</t>
         </is>
       </c>
       <c r="I5" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>本社出荷</t>
+          <t>本社出荷　一号館NO.80</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr"/>

--- a/Program/出荷実績照会_本社.xlsx
+++ b/Program/出荷実績照会_本社.xlsx
@@ -7,8 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常_輸出N" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常_輸出Y" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常_輸出N" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -174,6 +175,36 @@
 </wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2400300" cy="595312"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -473,14 +504,14 @@
   <cols>
     <col width="2.42" customWidth="1" min="1" max="1"/>
     <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
-    <col width="13.64" customWidth="1" min="3" max="3"/>
-    <col width="29.15" customWidth="1" min="4" max="4"/>
+    <col width="17.38" customWidth="1" min="3" max="3"/>
+    <col width="32.12" customWidth="1" min="4" max="4"/>
     <col width="10.45" customWidth="1" min="5" max="5"/>
     <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
     <col width="4.29" customWidth="1" min="7" max="7"/>
-    <col width="9.350000000000001" customWidth="1" min="8" max="8"/>
+    <col width="7.590000000000001" customWidth="1" min="8" max="8"/>
     <col width="4.29" customWidth="1" min="9" max="9"/>
-    <col width="21.01" customWidth="1" min="10" max="10"/>
+    <col width="8.030000000000001" customWidth="1" min="10" max="10"/>
     <col width="1.65" customWidth="1" min="11" max="11"/>
     <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
   </cols>
@@ -502,7 +533,7 @@
     <row r="3" ht="18" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>運送業者：U0009 新潟運輸   配送区分：1 通常  輸出：N</t>
+          <t>運送業者：U0009 新潟運輸   配送区分：1 通常  輸出：Y</t>
         </is>
       </c>
     </row>
@@ -574,26 +605,26 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210405</t>
+          <t>20210407</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>スタンレー秦野</t>
+          <t>安達包運　名港西２</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>ＳＴＭ-３０-Ｔ２Ｌ塗料 (15KG)</t>
+          <t>Ｎ－４０４Ｋ２アンダー (UN/15KG)</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>20121706H</t>
+          <t>21032504H</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
@@ -602,18 +633,22 @@
       </c>
       <c r="H5" s="1" t="inlineStr">
         <is>
-          <t>J3775037</t>
+          <t>TW4041</t>
         </is>
       </c>
       <c r="I5" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>本社出荷　一号館NO.80</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr"/>
+          <t>本社出荷</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
       <c r="L5" s="1" t="n">
         <v>1</v>
       </c>
@@ -626,6 +661,262 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="2.42" customWidth="1" min="1" max="1"/>
+    <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
+    <col width="8.030000000000001" customWidth="1" min="3" max="3"/>
+    <col width="26.18" customWidth="1" min="4" max="4"/>
+    <col width="10.45" customWidth="1" min="5" max="5"/>
+    <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
+    <col width="4.29" customWidth="1" min="7" max="7"/>
+    <col width="7.590000000000001" customWidth="1" min="8" max="8"/>
+    <col width="4.29" customWidth="1" min="9" max="9"/>
+    <col width="15.84" customWidth="1" min="10" max="10"/>
+    <col width="1.65" customWidth="1" min="11" max="11"/>
+    <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="23" customHeight="1">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>出荷実績照会</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>出荷工場：@0001 本社工場</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>運送業者：U0009 新潟運輸   配送区分：1 通常  輸出：N</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>行</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>売上日</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>納入先名</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>品名</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>ﾛｯﾄNo.</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>売上数量</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>単位</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>注文No.</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>缶数</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="18" customHeight="1">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>20210407</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>飯田塗料</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>５１００ クリヤー (16KG)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>20102203H</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr"/>
+      <c r="I5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>本社出荷</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr"/>
+      <c r="L5" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>20210407</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>飯田塗料</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>５１００Ｍ クリヤー (16KG)</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>21011901H</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr"/>
+      <c r="I6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>本社出荷</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr"/>
+      <c r="L6" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" ht="18" customHeight="1">
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>20210407</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>市光藤岡</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>ＩＫ－５０（15KG）</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>21021504H</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr"/>
+      <c r="I7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>本社出荷　4N納場</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr"/>
+      <c r="L7" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/Program/出荷実績照会_本社.xlsx
+++ b/Program/出荷実績照会_本社.xlsx
@@ -7,9 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常_輸出Y" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常_輸出N" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常_輸出N" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -175,36 +174,6 @@
 </wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>7</col>
-      <colOff>0</colOff>
-      <row>0</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2400300" cy="595312"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -504,8 +473,8 @@
   <cols>
     <col width="2.42" customWidth="1" min="1" max="1"/>
     <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
-    <col width="17.38" customWidth="1" min="3" max="3"/>
-    <col width="32.12" customWidth="1" min="4" max="4"/>
+    <col width="8.030000000000001" customWidth="1" min="3" max="3"/>
+    <col width="30.47" customWidth="1" min="4" max="4"/>
     <col width="10.45" customWidth="1" min="5" max="5"/>
     <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
     <col width="4.29" customWidth="1" min="7" max="7"/>
@@ -533,7 +502,7 @@
     <row r="3" ht="18" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>運送業者：U0009 新潟運輸   配送区分：1 通常  輸出：Y</t>
+          <t>運送業者：U0009 新潟運輸   配送区分：1 通常  輸出：N</t>
         </is>
       </c>
     </row>
@@ -605,50 +574,42 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210407</t>
+          <t>20210421</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>安達包運　名港西２</t>
+          <t>旭真空</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>Ｎ－４０４Ｋ２アンダー (UN/15KG)</t>
+          <t>ＦＡ－３４１艶消剤　（１５ＫＧ）</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>21032504H</t>
+          <t>21041907H</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
           <t>CN</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>TW4041</t>
-        </is>
-      </c>
+      <c r="H5" s="1" t="inlineStr"/>
       <c r="I5" s="1" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
           <t>本社出荷</t>
         </is>
       </c>
-      <c r="K5" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
+      <c r="K5" s="1" t="inlineStr"/>
       <c r="L5" s="1" t="n">
         <v>1</v>
       </c>
@@ -661,262 +622,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:L7"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="2.42" customWidth="1" min="1" max="1"/>
-    <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
-    <col width="8.030000000000001" customWidth="1" min="3" max="3"/>
-    <col width="26.18" customWidth="1" min="4" max="4"/>
-    <col width="10.45" customWidth="1" min="5" max="5"/>
-    <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
-    <col width="4.29" customWidth="1" min="7" max="7"/>
-    <col width="7.590000000000001" customWidth="1" min="8" max="8"/>
-    <col width="4.29" customWidth="1" min="9" max="9"/>
-    <col width="15.84" customWidth="1" min="10" max="10"/>
-    <col width="1.65" customWidth="1" min="11" max="11"/>
-    <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="23" customHeight="1">
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>出荷実績照会</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="18" customHeight="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>出荷工場：@0001 本社工場</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="18" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>運送業者：U0009 新潟運輸   配送区分：1 通常  輸出：N</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>行</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>売上日</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>納入先名</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>品名</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>ﾛｯﾄNo.</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>売上数量</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>単位</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>注文No.</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t>缶数</t>
-        </is>
-      </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>備考</t>
-        </is>
-      </c>
-      <c r="K4" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L4" s="1" t="inlineStr">
-        <is>
-          <t>add</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>20210407</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>飯田塗料</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>５１００ クリヤー (16KG)</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>20102203H</t>
-        </is>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr"/>
-      <c r="I5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="J5" s="1" t="inlineStr">
-        <is>
-          <t>本社出荷</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr"/>
-      <c r="L5" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>20210407</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>飯田塗料</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>５１００Ｍ クリヤー (16KG)</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>21011901H</t>
-        </is>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="inlineStr"/>
-      <c r="I6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t>本社出荷</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr"/>
-      <c r="L6" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>20210407</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>市光藤岡</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t>ＩＫ－５０（15KG）</t>
-        </is>
-      </c>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
-          <t>21021504H</t>
-        </is>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G7" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H7" s="1" t="inlineStr"/>
-      <c r="I7" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J7" s="1" t="inlineStr">
-        <is>
-          <t>本社出荷　4N納場</t>
-        </is>
-      </c>
-      <c r="K7" s="1" t="inlineStr"/>
-      <c r="L7" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/Program/出荷実績照会_本社.xlsx
+++ b/Program/出荷実績照会_本社.xlsx
@@ -7,8 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常_輸出N" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_曜日違い_輸出Y" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_曜日違い_輸出N" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -145,6 +146,36 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2400300" cy="595312"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
@@ -463,7 +494,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,8 +504,8 @@
   <cols>
     <col width="2.42" customWidth="1" min="1" max="1"/>
     <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
-    <col width="8.030000000000001" customWidth="1" min="3" max="3"/>
-    <col width="30.47" customWidth="1" min="4" max="4"/>
+    <col width="19.58" customWidth="1" min="3" max="3"/>
+    <col width="33.22" customWidth="1" min="4" max="4"/>
     <col width="10.45" customWidth="1" min="5" max="5"/>
     <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
     <col width="4.29" customWidth="1" min="7" max="7"/>
@@ -502,7 +533,7 @@
     <row r="3" ht="18" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>運送業者：U0009 新潟運輸   配送区分：1 通常  輸出：N</t>
+          <t>運送業者：U0009 新潟運輸   配送区分：4 曜日違い  輸出：Y</t>
         </is>
       </c>
     </row>
@@ -574,43 +605,213 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210421</t>
+          <t>20210423</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>旭真空</t>
+          <t>安達包運倉庫(株)名港</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>ＦＡ－３４１艶消剤　（１５ＫＧ）</t>
+          <t>Ｎ－４０４Ｋ３ (UN/15KG)</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>21041907H</t>
+          <t>21042052T</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>GC3141</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>本社出荷</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>20210423</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>安達包運倉庫(株)名港</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>ＫＨＵ－３（改３）Ｂ液  (UN/19KG)</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>21041205H</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>GC3141</t>
+        </is>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>本社出荷</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L6" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="18" customHeight="1">
+      <c r="A7" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="G5" s="1" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>20210423</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>安達包運倉庫(株)名港</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>ＫＨＵ－３（改３）Ａ液 (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>21041503H</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
         <is>
           <t>CN</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr"/>
-      <c r="I5" s="1" t="n">
+      <c r="H7" s="1" t="inlineStr">
+        <is>
+          <t>GC3141</t>
+        </is>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>本社出荷</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L7" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="18" customHeight="1">
+      <c r="A8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>20210423</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>安達包運倉庫(株)名港</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>Ｕ－３２０ シンナー (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>21041206H</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="J5" s="1" t="inlineStr">
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="inlineStr">
+        <is>
+          <t>GC3141</t>
+        </is>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J8" s="1" t="inlineStr">
         <is>
           <t>本社出荷</t>
         </is>
       </c>
-      <c r="K5" s="1" t="inlineStr"/>
-      <c r="L5" s="1" t="n">
+      <c r="K8" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L8" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -622,6 +823,446 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="2.42" customWidth="1" min="1" max="1"/>
+    <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
+    <col width="11.77" customWidth="1" min="3" max="3"/>
+    <col width="36.3" customWidth="1" min="4" max="4"/>
+    <col width="10.45" customWidth="1" min="5" max="5"/>
+    <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
+    <col width="4.29" customWidth="1" min="7" max="7"/>
+    <col width="7.590000000000001" customWidth="1" min="8" max="8"/>
+    <col width="4.29" customWidth="1" min="9" max="9"/>
+    <col width="8.030000000000001" customWidth="1" min="10" max="10"/>
+    <col width="1.65" customWidth="1" min="11" max="11"/>
+    <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="23" customHeight="1">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>出荷実績照会</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>出荷工場：@0001 本社工場</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>運送業者：U0009 新潟運輸   配送区分：4 曜日違い  輸出：N</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>行</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>売上日</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>納入先名</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>品名</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>ﾛｯﾄNo.</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>売上数量</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>単位</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>注文No.</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>缶数</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="18" customHeight="1">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>20210423</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>光輝社焼津</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>ＳＶ－４５００－３６　アンダー (15KG)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>21042001H</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr"/>
+      <c r="I5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>本社出荷</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr"/>
+      <c r="L5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>20210423</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>光輝社焼津</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>ＳＶ－４５００－３６　アンダー (15KG)</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>21033004H</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr"/>
+      <c r="I6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>本社出荷</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr"/>
+      <c r="L6" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="18" customHeight="1">
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>20210423</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>横浜機工</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>Ｕ－１００ シンナー (15KG)</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>21021103H</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr"/>
+      <c r="I7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>本社出荷</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr"/>
+      <c r="L7" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="18" customHeight="1">
+      <c r="A8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>20210423</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>トータス技実</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>ＳＴＨ－５０１Ｍ アンダー (15KG)</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>21041506H</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="inlineStr"/>
+      <c r="I8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" s="1" t="inlineStr">
+        <is>
+          <t>本社出荷</t>
+        </is>
+      </c>
+      <c r="K8" s="1" t="inlineStr"/>
+      <c r="L8" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="18" customHeight="1">
+      <c r="A9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>20210423</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>トータス技実</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>ＳＴＨ－３５０Ｍアンダー (15KG)</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="inlineStr">
+        <is>
+          <t>21010801H</t>
+        </is>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H9" s="1" t="inlineStr"/>
+      <c r="I9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1" t="inlineStr">
+        <is>
+          <t>本社出荷</t>
+        </is>
+      </c>
+      <c r="K9" s="1" t="inlineStr"/>
+      <c r="L9" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="18" customHeight="1">
+      <c r="A10" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>20210423</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>トータス技実</t>
+        </is>
+      </c>
+      <c r="D10" s="1" t="inlineStr">
+        <is>
+          <t>ＳＴＨ－３５０Ｍアンダー (15KG)</t>
+        </is>
+      </c>
+      <c r="E10" s="1" t="inlineStr">
+        <is>
+          <t>21031705H</t>
+        </is>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H10" s="1" t="inlineStr"/>
+      <c r="I10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1" t="inlineStr">
+        <is>
+          <t>本社出荷</t>
+        </is>
+      </c>
+      <c r="K10" s="1" t="inlineStr"/>
+      <c r="L10" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="18" customHeight="1">
+      <c r="A11" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>20210423</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>トータス技実</t>
+        </is>
+      </c>
+      <c r="D11" s="1" t="inlineStr">
+        <is>
+          <t>ＲＴ－３５Ｍ トップ (16KG)</t>
+        </is>
+      </c>
+      <c r="E11" s="1" t="inlineStr">
+        <is>
+          <t>21030801H</t>
+        </is>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H11" s="1" t="inlineStr"/>
+      <c r="I11" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J11" s="1" t="inlineStr">
+        <is>
+          <t>本社出荷</t>
+        </is>
+      </c>
+      <c r="K11" s="1" t="inlineStr"/>
+      <c r="L11" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/Program/出荷実績照会_本社.xlsx
+++ b/Program/出荷実績照会_本社.xlsx
@@ -7,8 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_曜日違い_輸出Y" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_曜日違い_輸出N" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常_輸出Y" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常_輸出N" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
@@ -494,7 +494,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,12 +504,12 @@
   <cols>
     <col width="2.42" customWidth="1" min="1" max="1"/>
     <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
-    <col width="19.58" customWidth="1" min="3" max="3"/>
-    <col width="33.22" customWidth="1" min="4" max="4"/>
-    <col width="10.45" customWidth="1" min="5" max="5"/>
+    <col width="17.38" customWidth="1" min="3" max="3"/>
+    <col width="40.26" customWidth="1" min="4" max="4"/>
+    <col width="12.65" customWidth="1" min="5" max="5"/>
     <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
     <col width="4.29" customWidth="1" min="7" max="7"/>
-    <col width="7.590000000000001" customWidth="1" min="8" max="8"/>
+    <col width="8.25" customWidth="1" min="8" max="8"/>
     <col width="4.29" customWidth="1" min="9" max="9"/>
     <col width="8.030000000000001" customWidth="1" min="10" max="10"/>
     <col width="1.65" customWidth="1" min="11" max="11"/>
@@ -533,7 +533,7 @@
     <row r="3" ht="18" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>運送業者：U0009 新潟運輸   配送区分：4 曜日違い  輸出：Y</t>
+          <t>運送業者：U0009 新潟運輸   配送区分：1 通常  輸出：Y</t>
         </is>
       </c>
     </row>
@@ -605,26 +605,26 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210423</t>
+          <t>20210507</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>安達包運倉庫(株)名港</t>
+          <t>名港海運㈱西2区</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>Ｎ－４０４Ｋ３ (UN/15KG)</t>
+          <t>ＰＲ－Ａ（ＫＡI） (UN/15KG)</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>21042052T</t>
+          <t>21040508H</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
@@ -633,11 +633,11 @@
       </c>
       <c r="H5" s="1" t="inlineStr">
         <is>
-          <t>GC3141</t>
+          <t>IID0961</t>
         </is>
       </c>
       <c r="I5" s="1" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
@@ -659,26 +659,26 @@
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>20210423</t>
+          <t>20210507</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>安達包運倉庫(株)名港</t>
+          <t>安達包運　名港西２</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>ＫＨＵ－３（改３）Ｂ液  (UN/19KG)</t>
+          <t>Ｎ－４０４Ｋ２アンダー (UN/15KG)</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>21041205H</t>
+          <t>21041207H</t>
         </is>
       </c>
       <c r="F6" s="1" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
@@ -687,11 +687,11 @@
       </c>
       <c r="H6" s="1" t="inlineStr">
         <is>
-          <t>GC3141</t>
+          <t>TW5281</t>
         </is>
       </c>
       <c r="I6" s="1" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
@@ -713,26 +713,26 @@
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>20210423</t>
+          <t>20210507</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>安達包運倉庫(株)名港</t>
+          <t>築港横浜　第２</t>
         </is>
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>ＫＨＵ－３（改３）Ａ液 (UN/15KG)</t>
+          <t>ＳＴＭ－３０－Ｔ１－ＣＨｼﾝﾅｰ (UN/14KG)</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>21041503H</t>
+          <t>21042051T</t>
         </is>
       </c>
       <c r="F7" s="1" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G7" s="1" t="inlineStr">
         <is>
@@ -741,11 +741,11 @@
       </c>
       <c r="H7" s="1" t="inlineStr">
         <is>
-          <t>GC3141</t>
+          <t>FG10196</t>
         </is>
       </c>
       <c r="I7" s="1" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
@@ -767,26 +767,26 @@
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>20210423</t>
+          <t>20210507</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>安達包運倉庫(株)名港</t>
+          <t>築港横浜　第２</t>
         </is>
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>Ｕ－３２０ シンナー (UN/15KG)</t>
+          <t>Ｕ－３３０シンナー (UN/14KG)</t>
         </is>
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>21041206H</t>
+          <t>21033152T</t>
         </is>
       </c>
       <c r="F8" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G8" s="1" t="inlineStr">
         <is>
@@ -795,11 +795,11 @@
       </c>
       <c r="H8" s="1" t="inlineStr">
         <is>
-          <t>GC3141</t>
+          <t>FG10196</t>
         </is>
       </c>
       <c r="I8" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J8" s="1" t="inlineStr">
         <is>
@@ -812,6 +812,168 @@
         </is>
       </c>
       <c r="L8" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="18" customHeight="1">
+      <c r="A9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>20210507</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>築港横浜　第２</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>ＳＲ－００１ Ｂ (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="inlineStr">
+        <is>
+          <t>21040108H05</t>
+        </is>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H9" s="1" t="inlineStr">
+        <is>
+          <t>FG10196</t>
+        </is>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1" t="inlineStr">
+        <is>
+          <t>本社出荷</t>
+        </is>
+      </c>
+      <c r="K9" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L9" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="18" customHeight="1">
+      <c r="A10" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>20210507</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>築港横浜　第２</t>
+        </is>
+      </c>
+      <c r="D10" s="1" t="inlineStr">
+        <is>
+          <t>ＳＲ－００１ Ａ (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E10" s="1" t="inlineStr">
+        <is>
+          <t>21033102H01</t>
+        </is>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H10" s="1" t="inlineStr">
+        <is>
+          <t>FG10196</t>
+        </is>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1" t="inlineStr">
+        <is>
+          <t>本社出荷</t>
+        </is>
+      </c>
+      <c r="K10" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L10" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="18" customHeight="1">
+      <c r="A11" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>20210507</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>築港横浜　第２</t>
+        </is>
+      </c>
+      <c r="D11" s="1" t="inlineStr">
+        <is>
+          <t>ＳＴＭ－３０－Ｔ２－ＶＣ Ｃlear (UN/15KG</t>
+        </is>
+      </c>
+      <c r="E11" s="1" t="inlineStr">
+        <is>
+          <t>21041202H</t>
+        </is>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H11" s="1" t="inlineStr">
+        <is>
+          <t>FG10196</t>
+        </is>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1" t="inlineStr">
+        <is>
+          <t>本社出荷</t>
+        </is>
+      </c>
+      <c r="K11" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L11" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -828,7 +990,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -838,8 +1000,8 @@
   <cols>
     <col width="2.42" customWidth="1" min="1" max="1"/>
     <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
-    <col width="11.77" customWidth="1" min="3" max="3"/>
-    <col width="36.3" customWidth="1" min="4" max="4"/>
+    <col width="8.030000000000001" customWidth="1" min="3" max="3"/>
+    <col width="30.47" customWidth="1" min="4" max="4"/>
     <col width="10.45" customWidth="1" min="5" max="5"/>
     <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
     <col width="4.29" customWidth="1" min="7" max="7"/>
@@ -867,7 +1029,7 @@
     <row r="3" ht="18" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>運送業者：U0009 新潟運輸   配送区分：4 曜日違い  輸出：N</t>
+          <t>運送業者：U0009 新潟運輸   配送区分：1 通常  輸出：N</t>
         </is>
       </c>
     </row>
@@ -939,26 +1101,26 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210423</t>
+          <t>20210507</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>光輝社焼津</t>
+          <t>旭真空</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>ＳＶ－４５００－３６　アンダー (15KG)</t>
+          <t>ＦＡ－３４１艶消剤　（１５ＫＧ）</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>21042001H</t>
+          <t>21041907H</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
@@ -967,7 +1129,7 @@
       </c>
       <c r="H5" s="1" t="inlineStr"/>
       <c r="I5" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
@@ -985,22 +1147,22 @@
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>20210423</t>
+          <t>20210507</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>光輝社焼津</t>
+          <t>相模塗装</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>ＳＶ－４５００－３６　アンダー (15KG)</t>
+          <t>ＳＴＭ－１塗料 (15KG)</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>21033004H</t>
+          <t>21021701H</t>
         </is>
       </c>
       <c r="F6" s="1" t="n">
@@ -1031,26 +1193,26 @@
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>20210423</t>
+          <t>20210507</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>横浜機工</t>
+          <t>三栄産業</t>
         </is>
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>Ｕ－１００ シンナー (15KG)</t>
+          <t>ＵＶ－２３ 添加剤 (900G)</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>21021103H</t>
+          <t>21032509H</t>
         </is>
       </c>
       <c r="F7" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" s="1" t="inlineStr">
         <is>
@@ -1059,7 +1221,7 @@
       </c>
       <c r="H7" s="1" t="inlineStr"/>
       <c r="I7" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
@@ -1077,22 +1239,22 @@
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>20210423</t>
+          <t>20210507</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>トータス技実</t>
+          <t>三栄産業</t>
         </is>
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>ＳＴＨ－５０１Ｍ アンダー (15KG)</t>
+          <t>ＵＶ－２３Ｒ アンダー (15KG)</t>
         </is>
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>21041506H</t>
+          <t>21032508H</t>
         </is>
       </c>
       <c r="F8" s="1" t="n">
@@ -1123,30 +1285,30 @@
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>20210423</t>
+          <t>20210507</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>トータス技実</t>
+          <t>不二蒸着</t>
         </is>
       </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>ＳＴＨ－３５０Ｍアンダー (15KG)</t>
+          <t>ＳＴＭ－１塗料 (1KG)</t>
         </is>
       </c>
       <c r="E9" s="1" t="inlineStr">
         <is>
-          <t>21010801H</t>
+          <t>21021701H</t>
         </is>
       </c>
       <c r="F9" s="1" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G9" s="1" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>KG</t>
         </is>
       </c>
       <c r="H9" s="1" t="inlineStr"/>
@@ -1160,98 +1322,6 @@
       </c>
       <c r="K9" s="1" t="inlineStr"/>
       <c r="L9" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" ht="18" customHeight="1">
-      <c r="A10" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>20210423</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t>トータス技実</t>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
-        <is>
-          <t>ＳＴＨ－３５０Ｍアンダー (15KG)</t>
-        </is>
-      </c>
-      <c r="E10" s="1" t="inlineStr">
-        <is>
-          <t>21031705H</t>
-        </is>
-      </c>
-      <c r="F10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H10" s="1" t="inlineStr"/>
-      <c r="I10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" s="1" t="inlineStr">
-        <is>
-          <t>本社出荷</t>
-        </is>
-      </c>
-      <c r="K10" s="1" t="inlineStr"/>
-      <c r="L10" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" ht="18" customHeight="1">
-      <c r="A11" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>20210423</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t>トータス技実</t>
-        </is>
-      </c>
-      <c r="D11" s="1" t="inlineStr">
-        <is>
-          <t>ＲＴ－３５Ｍ トップ (16KG)</t>
-        </is>
-      </c>
-      <c r="E11" s="1" t="inlineStr">
-        <is>
-          <t>21030801H</t>
-        </is>
-      </c>
-      <c r="F11" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G11" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H11" s="1" t="inlineStr"/>
-      <c r="I11" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J11" s="1" t="inlineStr">
-        <is>
-          <t>本社出荷</t>
-        </is>
-      </c>
-      <c r="K11" s="1" t="inlineStr"/>
-      <c r="L11" s="1" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Program/出荷実績照会_本社.xlsx
+++ b/Program/出荷実績照会_本社.xlsx
@@ -7,8 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常_輸出Y" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常_輸出N" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常_輸出N" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常_輸出Y" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
@@ -494,6 +494,400 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:L10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="2.42" customWidth="1" min="1" max="1"/>
+    <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
+    <col width="8.030000000000001" customWidth="1" min="3" max="3"/>
+    <col width="30.47" customWidth="1" min="4" max="4"/>
+    <col width="10.45" customWidth="1" min="5" max="5"/>
+    <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
+    <col width="4.29" customWidth="1" min="7" max="7"/>
+    <col width="7.590000000000001" customWidth="1" min="8" max="8"/>
+    <col width="4.29" customWidth="1" min="9" max="9"/>
+    <col width="8.030000000000001" customWidth="1" min="10" max="10"/>
+    <col width="1.65" customWidth="1" min="11" max="11"/>
+    <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="23" customHeight="1">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>出荷実績照会</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>出荷工場：@0001 本社工場</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>運送業者：U0009 新潟運輸   配送区分：1 通常  輸出：N</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>行</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>売上日</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>納入先名</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>品名</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>ﾛｯﾄNo.</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>売上数量</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>単位</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>注文No.</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>缶数</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="18" customHeight="1">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>20210507</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>旭真空</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>ＦＡ－３４１艶消剤　（１５ＫＧ）</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>21041907H</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr"/>
+      <c r="I5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>本社出荷</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr"/>
+      <c r="L5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>20210507</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>相模塗装</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>ＳＴＭ－１塗料 (15KG)</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>21021701H</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr"/>
+      <c r="I6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>本社出荷</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr"/>
+      <c r="L6" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="18" customHeight="1">
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>20210507</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>三栄産業</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>ＵＶ－２３ 添加剤 (900G)</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>21032509H</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr"/>
+      <c r="I7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>本社出荷</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr"/>
+      <c r="L7" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="18" customHeight="1">
+      <c r="A8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>20210507</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>三栄産業</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>ＵＶ－２３Ｒ アンダー (15KG)</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>21032508H</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="inlineStr"/>
+      <c r="I8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" s="1" t="inlineStr">
+        <is>
+          <t>本社出荷</t>
+        </is>
+      </c>
+      <c r="K8" s="1" t="inlineStr"/>
+      <c r="L8" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="18" customHeight="1">
+      <c r="A9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>20210507</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>不二蒸着</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>ＳＴＭ－１塗料 (1KG)</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="inlineStr">
+        <is>
+          <t>21021701H</t>
+        </is>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H9" s="1" t="inlineStr"/>
+      <c r="I9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1" t="inlineStr">
+        <is>
+          <t>本社出荷</t>
+        </is>
+      </c>
+      <c r="K9" s="1" t="inlineStr"/>
+      <c r="L9" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="18" customHeight="1">
+      <c r="A10" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>20210507</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>サナック</t>
+        </is>
+      </c>
+      <c r="D10" s="1" t="inlineStr">
+        <is>
+          <t>ＩＫ－５０（15KG）</t>
+        </is>
+      </c>
+      <c r="E10" s="1" t="inlineStr">
+        <is>
+          <t>21021504H</t>
+        </is>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H10" s="1" t="inlineStr"/>
+      <c r="I10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J10" s="1" t="inlineStr">
+        <is>
+          <t>本社出荷</t>
+        </is>
+      </c>
+      <c r="K10" s="1" t="inlineStr"/>
+      <c r="L10" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -723,12 +1117,12 @@
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>ＳＴＭ－３０－Ｔ１－ＣＨｼﾝﾅｰ (UN/14KG)</t>
+          <t>ＳＲ－００１ Ａ (UN/15KG)</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>21042051T</t>
+          <t>21033102H01</t>
         </is>
       </c>
       <c r="F7" s="1" t="n">
@@ -777,12 +1171,12 @@
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>Ｕ－３３０シンナー (UN/14KG)</t>
+          <t>ＳＲ－００１ Ｂ (UN/15KG)</t>
         </is>
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>21033152T</t>
+          <t>21040108H05</t>
         </is>
       </c>
       <c r="F8" s="1" t="n">
@@ -831,12 +1225,12 @@
       </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>ＳＲ－００１ Ｂ (UN/15KG)</t>
+          <t>ＳＴＭ－３０－Ｔ１－ＣＨｼﾝﾅｰ (UN/14KG)</t>
         </is>
       </c>
       <c r="E9" s="1" t="inlineStr">
         <is>
-          <t>21040108H05</t>
+          <t>21042051T</t>
         </is>
       </c>
       <c r="F9" s="1" t="n">
@@ -885,12 +1279,12 @@
       </c>
       <c r="D10" s="1" t="inlineStr">
         <is>
-          <t>ＳＲ－００１ Ａ (UN/15KG)</t>
+          <t>ＳＴＭ－３０－Ｔ２－ＶＣ Ｃlear (UN/15KG</t>
         </is>
       </c>
       <c r="E10" s="1" t="inlineStr">
         <is>
-          <t>21033102H01</t>
+          <t>21041202H</t>
         </is>
       </c>
       <c r="F10" s="1" t="n">
@@ -939,12 +1333,12 @@
       </c>
       <c r="D11" s="1" t="inlineStr">
         <is>
-          <t>ＳＴＭ－３０－Ｔ２－ＶＣ Ｃlear (UN/15KG</t>
+          <t>Ｕ－３３０シンナー (UN/14KG)</t>
         </is>
       </c>
       <c r="E11" s="1" t="inlineStr">
         <is>
-          <t>21041202H</t>
+          <t>21033152T</t>
         </is>
       </c>
       <c r="F11" s="1" t="n">
@@ -974,354 +1368,6 @@
         </is>
       </c>
       <c r="L11" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:L9"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="2.42" customWidth="1" min="1" max="1"/>
-    <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
-    <col width="8.030000000000001" customWidth="1" min="3" max="3"/>
-    <col width="30.47" customWidth="1" min="4" max="4"/>
-    <col width="10.45" customWidth="1" min="5" max="5"/>
-    <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
-    <col width="4.29" customWidth="1" min="7" max="7"/>
-    <col width="7.590000000000001" customWidth="1" min="8" max="8"/>
-    <col width="4.29" customWidth="1" min="9" max="9"/>
-    <col width="8.030000000000001" customWidth="1" min="10" max="10"/>
-    <col width="1.65" customWidth="1" min="11" max="11"/>
-    <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="23" customHeight="1">
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>出荷実績照会</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="18" customHeight="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>出荷工場：@0001 本社工場</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="18" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>運送業者：U0009 新潟運輸   配送区分：1 通常  輸出：N</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>行</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>売上日</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>納入先名</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>品名</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>ﾛｯﾄNo.</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>売上数量</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>単位</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>注文No.</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t>缶数</t>
-        </is>
-      </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>備考</t>
-        </is>
-      </c>
-      <c r="K4" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L4" s="1" t="inlineStr">
-        <is>
-          <t>add</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>20210507</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>旭真空</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>ＦＡ－３４１艶消剤　（１５ＫＧ）</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>21041907H</t>
-        </is>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr"/>
-      <c r="I5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="J5" s="1" t="inlineStr">
-        <is>
-          <t>本社出荷</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr"/>
-      <c r="L5" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>20210507</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>相模塗装</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>ＳＴＭ－１塗料 (15KG)</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>21021701H</t>
-        </is>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="inlineStr"/>
-      <c r="I6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t>本社出荷</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr"/>
-      <c r="L6" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>20210507</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>三栄産業</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t>ＵＶ－２３ 添加剤 (900G)</t>
-        </is>
-      </c>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
-          <t>21032509H</t>
-        </is>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G7" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H7" s="1" t="inlineStr"/>
-      <c r="I7" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J7" s="1" t="inlineStr">
-        <is>
-          <t>本社出荷</t>
-        </is>
-      </c>
-      <c r="K7" s="1" t="inlineStr"/>
-      <c r="L7" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>20210507</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>三栄産業</t>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
-        <is>
-          <t>ＵＶ－２３Ｒ アンダー (15KG)</t>
-        </is>
-      </c>
-      <c r="E8" s="1" t="inlineStr">
-        <is>
-          <t>21032508H</t>
-        </is>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G8" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H8" s="1" t="inlineStr"/>
-      <c r="I8" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J8" s="1" t="inlineStr">
-        <is>
-          <t>本社出荷</t>
-        </is>
-      </c>
-      <c r="K8" s="1" t="inlineStr"/>
-      <c r="L8" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" ht="18" customHeight="1">
-      <c r="A9" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>20210507</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>不二蒸着</t>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
-        <is>
-          <t>ＳＴＭ－１塗料 (1KG)</t>
-        </is>
-      </c>
-      <c r="E9" s="1" t="inlineStr">
-        <is>
-          <t>21021701H</t>
-        </is>
-      </c>
-      <c r="F9" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="inlineStr">
-        <is>
-          <t>KG</t>
-        </is>
-      </c>
-      <c r="H9" s="1" t="inlineStr"/>
-      <c r="I9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" s="1" t="inlineStr">
-        <is>
-          <t>本社出荷</t>
-        </is>
-      </c>
-      <c r="K9" s="1" t="inlineStr"/>
-      <c r="L9" s="1" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Program/出荷実績照会_本社.xlsx
+++ b/Program/出荷実績照会_本社.xlsx
@@ -7,8 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常_輸出N" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常_輸出Y" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="配達_通常_輸出N" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="トール_通常_輸出N" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
@@ -494,7 +494,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,8 +504,8 @@
   <cols>
     <col width="2.42" customWidth="1" min="1" max="1"/>
     <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
-    <col width="8.030000000000001" customWidth="1" min="3" max="3"/>
-    <col width="30.47" customWidth="1" min="4" max="4"/>
+    <col width="9.9" customWidth="1" min="3" max="3"/>
+    <col width="26.18" customWidth="1" min="4" max="4"/>
     <col width="10.45" customWidth="1" min="5" max="5"/>
     <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
     <col width="4.29" customWidth="1" min="7" max="7"/>
@@ -533,7 +533,7 @@
     <row r="3" ht="18" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>運送業者：U0009 新潟運輸   配送区分：1 通常  輸出：N</t>
+          <t>運送業者：U0008 配達   配送区分：1 通常  輸出：N</t>
         </is>
       </c>
     </row>
@@ -605,22 +605,22 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210507</t>
+          <t>20210519</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>旭真空</t>
+          <t>山口プレス</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>ＦＡ－３４１艶消剤　（１５ＫＧ）</t>
+          <t>Ｕ－１００ シンナー (15KG)</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>21041907H</t>
+          <t>21021103H</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
@@ -637,241 +637,11 @@
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>本社出荷</t>
+          <t>営業持参</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr"/>
       <c r="L5" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>20210507</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>相模塗装</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>ＳＴＭ－１塗料 (15KG)</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>21021701H</t>
-        </is>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="inlineStr"/>
-      <c r="I6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t>本社出荷</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr"/>
-      <c r="L6" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>20210507</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>三栄産業</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t>ＵＶ－２３ 添加剤 (900G)</t>
-        </is>
-      </c>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
-          <t>21032509H</t>
-        </is>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G7" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H7" s="1" t="inlineStr"/>
-      <c r="I7" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J7" s="1" t="inlineStr">
-        <is>
-          <t>本社出荷</t>
-        </is>
-      </c>
-      <c r="K7" s="1" t="inlineStr"/>
-      <c r="L7" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>20210507</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>三栄産業</t>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
-        <is>
-          <t>ＵＶ－２３Ｒ アンダー (15KG)</t>
-        </is>
-      </c>
-      <c r="E8" s="1" t="inlineStr">
-        <is>
-          <t>21032508H</t>
-        </is>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G8" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H8" s="1" t="inlineStr"/>
-      <c r="I8" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J8" s="1" t="inlineStr">
-        <is>
-          <t>本社出荷</t>
-        </is>
-      </c>
-      <c r="K8" s="1" t="inlineStr"/>
-      <c r="L8" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" ht="18" customHeight="1">
-      <c r="A9" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>20210507</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>不二蒸着</t>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
-        <is>
-          <t>ＳＴＭ－１塗料 (1KG)</t>
-        </is>
-      </c>
-      <c r="E9" s="1" t="inlineStr">
-        <is>
-          <t>21021701H</t>
-        </is>
-      </c>
-      <c r="F9" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="inlineStr">
-        <is>
-          <t>KG</t>
-        </is>
-      </c>
-      <c r="H9" s="1" t="inlineStr"/>
-      <c r="I9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" s="1" t="inlineStr">
-        <is>
-          <t>本社出荷</t>
-        </is>
-      </c>
-      <c r="K9" s="1" t="inlineStr"/>
-      <c r="L9" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" ht="18" customHeight="1">
-      <c r="A10" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>20210507</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t>サナック</t>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
-        <is>
-          <t>ＩＫ－５０（15KG）</t>
-        </is>
-      </c>
-      <c r="E10" s="1" t="inlineStr">
-        <is>
-          <t>21021504H</t>
-        </is>
-      </c>
-      <c r="F10" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G10" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H10" s="1" t="inlineStr"/>
-      <c r="I10" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J10" s="1" t="inlineStr">
-        <is>
-          <t>本社出荷</t>
-        </is>
-      </c>
-      <c r="K10" s="1" t="inlineStr"/>
-      <c r="L10" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -888,7 +658,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -898,12 +668,12 @@
   <cols>
     <col width="2.42" customWidth="1" min="1" max="1"/>
     <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
-    <col width="17.38" customWidth="1" min="3" max="3"/>
-    <col width="40.26" customWidth="1" min="4" max="4"/>
-    <col width="12.65" customWidth="1" min="5" max="5"/>
+    <col width="11.77" customWidth="1" min="3" max="3"/>
+    <col width="26.18" customWidth="1" min="4" max="4"/>
+    <col width="10.45" customWidth="1" min="5" max="5"/>
     <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
     <col width="4.29" customWidth="1" min="7" max="7"/>
-    <col width="8.25" customWidth="1" min="8" max="8"/>
+    <col width="7.590000000000001" customWidth="1" min="8" max="8"/>
     <col width="4.29" customWidth="1" min="9" max="9"/>
     <col width="8.030000000000001" customWidth="1" min="10" max="10"/>
     <col width="1.65" customWidth="1" min="11" max="11"/>
@@ -927,7 +697,7 @@
     <row r="3" ht="18" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>運送業者：U0009 新潟運輸   配送区分：1 通常  輸出：Y</t>
+          <t>運送業者：U0001 トール   配送区分：1 通常  輸出：N</t>
         </is>
       </c>
     </row>
@@ -999,26 +769,26 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210507</t>
+          <t>20210519</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>名港海運㈱西2区</t>
+          <t>鵜飼塗料商事</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>ＰＲ－Ａ（ＫＡI） (UN/15KG)</t>
+          <t>ＢＰ－５０アンダー (15KG)</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>21040508H</t>
+          <t>21041351T</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
@@ -1027,22 +797,18 @@
       </c>
       <c r="H5" s="1" t="inlineStr">
         <is>
-          <t>IID0961</t>
+          <t>NO.3</t>
         </is>
       </c>
       <c r="I5" s="1" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
           <t>本社出荷</t>
         </is>
       </c>
-      <c r="K5" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
+      <c r="K5" s="1" t="inlineStr"/>
       <c r="L5" s="1" t="n">
         <v>1</v>
       </c>
@@ -1053,26 +819,26 @@
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>20210507</t>
+          <t>20210519</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>安達包運　名港西２</t>
+          <t>鵜飼塗料商事</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>Ｎ－４０４Ｋ２アンダー (UN/15KG)</t>
+          <t>ＲＴ－３５Ｍ トップ (16KG)</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>21041207H</t>
+          <t>21030801H</t>
         </is>
       </c>
       <c r="F6" s="1" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
@@ -1081,293 +847,19 @@
       </c>
       <c r="H6" s="1" t="inlineStr">
         <is>
-          <t>TW5281</t>
+          <t>NO.3</t>
         </is>
       </c>
       <c r="I6" s="1" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
           <t>本社出荷</t>
         </is>
       </c>
-      <c r="K6" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
+      <c r="K6" s="1" t="inlineStr"/>
       <c r="L6" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>20210507</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>築港横浜　第２</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t>ＳＲ－００１ Ａ (UN/15KG)</t>
-        </is>
-      </c>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
-          <t>21033102H01</t>
-        </is>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>FG10196</t>
-        </is>
-      </c>
-      <c r="I7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1" t="inlineStr">
-        <is>
-          <t>本社出荷</t>
-        </is>
-      </c>
-      <c r="K7" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L7" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>20210507</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>築港横浜　第２</t>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
-        <is>
-          <t>ＳＲ－００１ Ｂ (UN/15KG)</t>
-        </is>
-      </c>
-      <c r="E8" s="1" t="inlineStr">
-        <is>
-          <t>21040108H05</t>
-        </is>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H8" s="1" t="inlineStr">
-        <is>
-          <t>FG10196</t>
-        </is>
-      </c>
-      <c r="I8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1" t="inlineStr">
-        <is>
-          <t>本社出荷</t>
-        </is>
-      </c>
-      <c r="K8" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L8" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" ht="18" customHeight="1">
-      <c r="A9" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>20210507</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>築港横浜　第２</t>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
-        <is>
-          <t>ＳＴＭ－３０－Ｔ１－ＣＨｼﾝﾅｰ (UN/14KG)</t>
-        </is>
-      </c>
-      <c r="E9" s="1" t="inlineStr">
-        <is>
-          <t>21042051T</t>
-        </is>
-      </c>
-      <c r="F9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H9" s="1" t="inlineStr">
-        <is>
-          <t>FG10196</t>
-        </is>
-      </c>
-      <c r="I9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" s="1" t="inlineStr">
-        <is>
-          <t>本社出荷</t>
-        </is>
-      </c>
-      <c r="K9" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L9" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" ht="18" customHeight="1">
-      <c r="A10" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>20210507</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t>築港横浜　第２</t>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
-        <is>
-          <t>ＳＴＭ－３０－Ｔ２－ＶＣ Ｃlear (UN/15KG</t>
-        </is>
-      </c>
-      <c r="E10" s="1" t="inlineStr">
-        <is>
-          <t>21041202H</t>
-        </is>
-      </c>
-      <c r="F10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H10" s="1" t="inlineStr">
-        <is>
-          <t>FG10196</t>
-        </is>
-      </c>
-      <c r="I10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" s="1" t="inlineStr">
-        <is>
-          <t>本社出荷</t>
-        </is>
-      </c>
-      <c r="K10" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L10" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" ht="18" customHeight="1">
-      <c r="A11" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>20210507</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t>築港横浜　第２</t>
-        </is>
-      </c>
-      <c r="D11" s="1" t="inlineStr">
-        <is>
-          <t>Ｕ－３３０シンナー (UN/14KG)</t>
-        </is>
-      </c>
-      <c r="E11" s="1" t="inlineStr">
-        <is>
-          <t>21033152T</t>
-        </is>
-      </c>
-      <c r="F11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H11" s="1" t="inlineStr">
-        <is>
-          <t>FG10196</t>
-        </is>
-      </c>
-      <c r="I11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="1" t="inlineStr">
-        <is>
-          <t>本社出荷</t>
-        </is>
-      </c>
-      <c r="K11" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L11" s="1" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Program/出荷実績照会_本社.xlsx
+++ b/Program/出荷実績照会_本社.xlsx
@@ -7,8 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="配達_通常_輸出N" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="トール_通常_輸出N" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NoData_通常_輸出N" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常_輸出N" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
@@ -505,13 +505,13 @@
     <col width="2.42" customWidth="1" min="1" max="1"/>
     <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
     <col width="9.9" customWidth="1" min="3" max="3"/>
-    <col width="26.18" customWidth="1" min="4" max="4"/>
-    <col width="10.45" customWidth="1" min="5" max="5"/>
+    <col width="18.37" customWidth="1" min="4" max="4"/>
+    <col width="7.15" customWidth="1" min="5" max="5"/>
     <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
     <col width="4.29" customWidth="1" min="7" max="7"/>
     <col width="7.590000000000001" customWidth="1" min="8" max="8"/>
     <col width="4.29" customWidth="1" min="9" max="9"/>
-    <col width="8.030000000000001" customWidth="1" min="10" max="10"/>
+    <col width="7.15" customWidth="1" min="10" max="10"/>
     <col width="1.65" customWidth="1" min="11" max="11"/>
     <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
   </cols>
@@ -533,7 +533,7 @@
     <row r="3" ht="18" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>運送業者：U0008 配達   配送区分：1 通常  輸出：N</t>
+          <t>運送業者：NoData NoData   配送区分：1 通常  輸出：N</t>
         </is>
       </c>
     </row>
@@ -605,39 +605,35 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210519</t>
+          <t>20210531</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>山口プレス</t>
+          <t>美野里真空</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>Ｕ－１００ シンナー (15KG)</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>21021103H</t>
-        </is>
-      </c>
+          <t>運送費(5/31出荷分)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr"/>
       <c r="F5" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>PC</t>
         </is>
       </c>
       <c r="H5" s="1" t="inlineStr"/>
       <c r="I5" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>営業持参</t>
+          <t>noData</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr"/>
@@ -658,7 +654,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -668,8 +664,8 @@
   <cols>
     <col width="2.42" customWidth="1" min="1" max="1"/>
     <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
-    <col width="11.77" customWidth="1" min="3" max="3"/>
-    <col width="26.18" customWidth="1" min="4" max="4"/>
+    <col width="8.030000000000001" customWidth="1" min="3" max="3"/>
+    <col width="18.04" customWidth="1" min="4" max="4"/>
     <col width="10.45" customWidth="1" min="5" max="5"/>
     <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
     <col width="4.29" customWidth="1" min="7" max="7"/>
@@ -697,7 +693,7 @@
     <row r="3" ht="18" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>運送業者：U0001 トール   配送区分：1 通常  輸出：N</t>
+          <t>運送業者：U0009 新潟運輸   配送区分：1 通常  輸出：N</t>
         </is>
       </c>
     </row>
@@ -769,39 +765,35 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210519</t>
+          <t>20210531</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>鵜飼塗料商事</t>
+          <t>サナック</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>ＢＰ－５０アンダー (15KG)</t>
+          <t>ＩＫ－５０（15KG）</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>21041351T</t>
+          <t>21041901H</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
           <t>CN</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>NO.3</t>
-        </is>
-      </c>
+      <c r="H5" s="1" t="inlineStr"/>
       <c r="I5" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
@@ -810,56 +802,6 @@
       </c>
       <c r="K5" s="1" t="inlineStr"/>
       <c r="L5" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>20210519</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>鵜飼塗料商事</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>ＲＴ－３５Ｍ トップ (16KG)</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>21030801H</t>
-        </is>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>NO.3</t>
-        </is>
-      </c>
-      <c r="I6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t>本社出荷</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr"/>
-      <c r="L6" s="1" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Program/出荷実績照会_本社.xlsx
+++ b/Program/出荷実績照会_本社.xlsx
@@ -7,8 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NoData_通常_輸出N" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常_輸出N" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常_輸出N" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常_輸出Y" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
@@ -504,14 +504,14 @@
   <cols>
     <col width="2.42" customWidth="1" min="1" max="1"/>
     <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
-    <col width="9.9" customWidth="1" min="3" max="3"/>
-    <col width="18.37" customWidth="1" min="4" max="4"/>
-    <col width="7.15" customWidth="1" min="5" max="5"/>
+    <col width="8.030000000000001" customWidth="1" min="3" max="3"/>
+    <col width="26.95" customWidth="1" min="4" max="4"/>
+    <col width="10.45" customWidth="1" min="5" max="5"/>
     <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
     <col width="4.29" customWidth="1" min="7" max="7"/>
     <col width="7.590000000000001" customWidth="1" min="8" max="8"/>
     <col width="4.29" customWidth="1" min="9" max="9"/>
-    <col width="7.15" customWidth="1" min="10" max="10"/>
+    <col width="8.030000000000001" customWidth="1" min="10" max="10"/>
     <col width="1.65" customWidth="1" min="11" max="11"/>
     <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
   </cols>
@@ -533,7 +533,7 @@
     <row r="3" ht="18" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>運送業者：NoData NoData   配送区分：1 通常  輸出：N</t>
+          <t>運送業者：U0009 新潟運輸   配送区分：1 通常  輸出：N</t>
         </is>
       </c>
     </row>
@@ -605,35 +605,39 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210531</t>
+          <t>20210802</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>美野里真空</t>
+          <t>富士産業</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>運送費(5/31出荷分)</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr"/>
+          <t>ＲＴ－４００Ⅱトップ (14KG)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>21071901H</t>
+        </is>
+      </c>
       <c r="F5" s="1" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
-          <t>PC</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="H5" s="1" t="inlineStr"/>
       <c r="I5" s="1" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>noData</t>
+          <t>本社出荷</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr"/>
@@ -654,7 +658,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -664,8 +668,8 @@
   <cols>
     <col width="2.42" customWidth="1" min="1" max="1"/>
     <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
-    <col width="8.030000000000001" customWidth="1" min="3" max="3"/>
-    <col width="18.04" customWidth="1" min="4" max="4"/>
+    <col width="17.38" customWidth="1" min="3" max="3"/>
+    <col width="30.25" customWidth="1" min="4" max="4"/>
     <col width="10.45" customWidth="1" min="5" max="5"/>
     <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
     <col width="4.29" customWidth="1" min="7" max="7"/>
@@ -693,7 +697,7 @@
     <row r="3" ht="18" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>運送業者：U0009 新潟運輸   配送区分：1 通常  輸出：N</t>
+          <t>運送業者：U0009 新潟運輸   配送区分：1 通常  輸出：Y</t>
         </is>
       </c>
     </row>
@@ -765,43 +769,105 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210531</t>
+          <t>20210802</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>サナック</t>
+          <t>安達包運倉庫　名港</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>ＩＫ－５０（15KG）</t>
+          <t>Ｎー４０４Ｋ２　Ｂ液 (UN/15KG)</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>21041901H</t>
+          <t>21071406H</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>UK9861</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>本社出荷</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="G5" s="1" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>20210802</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>安達包運倉庫　名港</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>Ｎ－４０４Ｋ２　Ａ液 (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>21071405H</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
         <is>
           <t>CN</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr"/>
-      <c r="I5" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J5" s="1" t="inlineStr">
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>UK9861</t>
+        </is>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
         <is>
           <t>本社出荷</t>
         </is>
       </c>
-      <c r="K5" s="1" t="inlineStr"/>
-      <c r="L5" s="1" t="n">
+      <c r="K6" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L6" s="1" t="n">
         <v>1</v>
       </c>
     </row>
